--- a/all.xlsx
+++ b/all.xlsx
@@ -895,14 +895,14 @@
         <v>13</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s" s="0">
         <v>32</v>
@@ -920,14 +920,14 @@
         <v>13</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E29" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s" s="0">
         <v>32</v>
@@ -1346,24 +1346,26 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F52" s="0"/>
-      <c r="G52" s="0"/>
+      <c r="G52" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="H52" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I52" s="0"/>
     </row>
@@ -1378,7 +1380,7 @@
         <v>28</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n" s="0">
         <v>2.0</v>
@@ -1392,26 +1394,24 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E54" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F54" s="0"/>
-      <c r="G54" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G54" s="0"/>
       <c r="H54" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I54" s="0"/>
     </row>
@@ -1808,68 +1808,68 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="B76" s="0"/>
-      <c r="C76" s="0"/>
+        <v>48</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>8</v>
+      </c>
       <c r="D76" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E76" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F76" s="0"/>
-      <c r="G76" s="0"/>
+      <c r="G76" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="H76" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I76" s="0"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B77" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C77" t="s" s="0">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
       <c r="D77" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E77" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F77" s="0"/>
       <c r="G77" s="0"/>
       <c r="H77" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I77" s="0"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E78" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F78" s="0"/>
-      <c r="G78" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G78" s="0"/>
       <c r="H78" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I78" s="0"/>
     </row>
@@ -2167,14 +2167,14 @@
         <v>56</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E94" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F94" s="0"/>
       <c r="G94" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H94" t="s" s="0">
         <v>32</v>
@@ -2183,24 +2183,26 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E95" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F95" s="0"/>
-      <c r="G95" s="0"/>
+      <c r="G95" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="H95" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I95" s="0"/>
     </row>
@@ -2215,7 +2217,7 @@
         <v>56</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E96" t="n" s="0">
         <v>2.0</v>
@@ -2231,26 +2233,24 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E97" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F97" s="0"/>
-      <c r="G97" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G97" s="0"/>
       <c r="H97" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I97" s="0"/>
     </row>
@@ -2297,72 +2297,72 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E101" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F101" s="0"/>
-      <c r="G101" s="0"/>
+      <c r="G101" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="H101" t="s" s="0">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I101" s="0"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E102" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F102" s="0"/>
       <c r="G102" s="0"/>
       <c r="H102" t="s" s="0">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="I102" s="0"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E103" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F103" s="0"/>
-      <c r="G103" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G103" s="0"/>
       <c r="H103" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I103" s="0"/>
     </row>
@@ -2713,39 +2713,41 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E123" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F123" s="0"/>
-      <c r="G123" s="0"/>
+      <c r="G123" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="H123" t="s" s="0">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I123" s="0"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E124" t="n" s="0">
         <v>2.0</v>
@@ -2753,32 +2755,30 @@
       <c r="F124" s="0"/>
       <c r="G124" s="0"/>
       <c r="H124" t="s" s="0">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I124" s="0"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E125" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F125" s="0"/>
-      <c r="G125" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G125" s="0"/>
       <c r="H125" t="s" s="0">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I125" s="0"/>
     </row>
@@ -3109,14 +3109,14 @@
         <v>72</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E142" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F142" s="0"/>
       <c r="G142" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H142" t="s" s="0">
         <v>32</v>
@@ -3125,24 +3125,26 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E143" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F143" s="0"/>
-      <c r="G143" s="0"/>
+      <c r="G143" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="H143" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I143" s="0"/>
     </row>
@@ -3157,7 +3159,7 @@
         <v>72</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E144" t="n" s="0">
         <v>2.0</v>
@@ -3173,26 +3175,24 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E145" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F145" s="0"/>
-      <c r="G145" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G145" s="0"/>
       <c r="H145" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I145" s="0"/>
     </row>
@@ -3353,14 +3353,14 @@
         <v>13</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E155" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F155" s="0"/>
       <c r="G155" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H155" t="s" s="0">
         <v>32</v>
@@ -3369,16 +3369,16 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E156" t="n" s="0">
         <v>2.0</v>
@@ -3394,23 +3394,23 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E157" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F157" s="0"/>
       <c r="G157" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H157" t="s" s="0">
         <v>32</v>
@@ -3471,45 +3471,45 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="B161" s="0"/>
-      <c r="C161" s="0"/>
+        <v>69</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>70</v>
+      </c>
       <c r="D161" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E161" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F161" s="0"/>
-      <c r="G161" s="0"/>
+      <c r="G161" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="H161" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I161" s="0"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B162" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C162" t="s" s="0">
-        <v>70</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B162" s="0"/>
+      <c r="C162" s="0"/>
       <c r="D162" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E162" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F162" s="0"/>
-      <c r="G162" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G162" s="0"/>
       <c r="H162" t="s" s="0">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I162" s="0"/>
     </row>
@@ -3994,23 +3994,23 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E187" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F187" s="0"/>
       <c r="G187" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H187" t="s" s="0">
         <v>32</v>
@@ -4019,23 +4019,23 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E188" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F188" s="0"/>
       <c r="G188" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H188" t="s" s="0">
         <v>32</v>
@@ -5034,39 +5034,41 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D244" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E244" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F244" s="0"/>
-      <c r="G244" s="0"/>
+      <c r="G244" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="H244" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I244" s="0"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D245" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E245" t="n" s="0">
         <v>2.0</v>
@@ -5080,26 +5082,24 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D246" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E246" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F246" s="0"/>
-      <c r="G246" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G246" s="0"/>
       <c r="H246" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I246" s="0"/>
     </row>
@@ -6081,45 +6081,45 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B300" s="0"/>
-      <c r="C300" s="0"/>
+        <v>94</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>54</v>
+      </c>
       <c r="D300" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E300" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F300" s="0"/>
-      <c r="G300" s="0"/>
+      <c r="G300" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="H300" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I300" s="0"/>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B301" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C301" t="s" s="0">
-        <v>54</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B301" s="0"/>
+      <c r="C301" s="0"/>
       <c r="D301" t="s" s="0">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E301" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F301" s="0"/>
-      <c r="G301" t="s" s="0">
-        <v>31</v>
-      </c>
+      <c r="G301" s="0"/>
       <c r="H301" t="s" s="0">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I301" s="0"/>
     </row>
@@ -6134,14 +6134,14 @@
         <v>54</v>
       </c>
       <c r="D302" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E302" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F302" s="0"/>
       <c r="G302" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H302" t="s" s="0">
         <v>32</v>
@@ -6243,21 +6243,23 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B309" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C309" s="0"/>
+      <c r="C309" t="s" s="0">
+        <v>8</v>
+      </c>
       <c r="D309" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E309" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F309" s="0"/>
       <c r="G309" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H309" t="s" s="0">
         <v>32</v>
@@ -6266,45 +6268,43 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B310" s="0"/>
+        <v>95</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>7</v>
+      </c>
       <c r="C310" s="0"/>
       <c r="D310" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E310" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F310" s="0"/>
-      <c r="G310" s="0"/>
+      <c r="G310" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="H310" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I310" s="0"/>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="B311" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C311" t="s" s="0">
-        <v>8</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B311" s="0"/>
+      <c r="C311" s="0"/>
       <c r="D311" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E311" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F311" s="0"/>
-      <c r="G311" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G311" s="0"/>
       <c r="H311" t="s" s="0">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I311" s="0"/>
     </row>
@@ -6360,43 +6360,43 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B315" s="0"/>
+        <v>95</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>7</v>
+      </c>
       <c r="C315" s="0"/>
       <c r="D315" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E315" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F315" s="0"/>
-      <c r="G315" s="0"/>
+      <c r="G315" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="H315" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I315" s="0"/>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B316" t="s" s="0">
-        <v>7</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B316" s="0"/>
       <c r="C316" s="0"/>
       <c r="D316" t="s" s="0">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E316" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F316" s="0"/>
-      <c r="G316" t="s" s="0">
-        <v>31</v>
-      </c>
+      <c r="G316" s="0"/>
       <c r="H316" t="s" s="0">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I316" s="0"/>
     </row>
@@ -6409,14 +6409,14 @@
       </c>
       <c r="C317" s="0"/>
       <c r="D317" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E317" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F317" s="0"/>
       <c r="G317" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H317" t="s" s="0">
         <v>32</v>
@@ -6668,23 +6668,21 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C332" t="s" s="0">
-        <v>70</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C332" s="0"/>
       <c r="D332" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E332" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F332" s="0"/>
       <c r="G332" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H332" t="s" s="0">
         <v>32</v>
@@ -6693,33 +6691,41 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B333" s="0"/>
-      <c r="C333" s="0"/>
+        <v>69</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>70</v>
+      </c>
       <c r="D333" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E333" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F333" s="0"/>
-      <c r="G333" s="0"/>
+      <c r="G333" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="H333" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I333" s="0"/>
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C334" s="0"/>
+        <v>21</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>70</v>
+      </c>
       <c r="D334" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E334" t="n" s="0">
         <v>2.0</v>
@@ -6735,26 +6741,20 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B335" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C335" t="s" s="0">
-        <v>70</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B335" s="0"/>
+      <c r="C335" s="0"/>
       <c r="D335" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E335" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F335" s="0"/>
-      <c r="G335" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G335" s="0"/>
       <c r="H335" t="s" s="0">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I335" s="0"/>
     </row>
@@ -6812,49 +6812,49 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D339" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E339" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F339" s="0"/>
-      <c r="G339" s="0"/>
+      <c r="G339" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="H339" t="s" s="0">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I339" s="0"/>
     </row>
     <row r="340">
       <c r="A340" t="s" s="0">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C340" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D340" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E340" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F340" s="0"/>
-      <c r="G340" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G340" s="0"/>
       <c r="H340" t="s" s="0">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I340" s="0"/>
     </row>
@@ -7029,49 +7029,49 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B350" t="s" s="0">
         <v>88</v>
       </c>
       <c r="C350" t="s" s="0">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D350" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E350" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F350" s="0"/>
-      <c r="G350" s="0"/>
+      <c r="G350" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="H350" t="s" s="0">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I350" s="0"/>
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B351" t="s" s="0">
         <v>88</v>
       </c>
       <c r="C351" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D351" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E351" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F351" s="0"/>
-      <c r="G351" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G351" s="0"/>
       <c r="H351" t="s" s="0">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I351" s="0"/>
     </row>

--- a/all.xlsx
+++ b/all.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="107">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I353"/>
+  <dimension ref="A1:I352"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4827,36 +4827,51 @@
     </row>
     <row r="231">
       <c r="A231" t="n" s="1">
-        <v>45972.0</v>
+        <v>45973.0</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n" s="1">
-        <v>45973.0</v>
-      </c>
-      <c r="B232" t="s" s="0">
-        <v>23</v>
-      </c>
+      <c r="A232" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B232" s="0"/>
+      <c r="C232" s="0"/>
+      <c r="D232" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E232" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F232" s="0"/>
+      <c r="G232" s="0"/>
+      <c r="H232" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I232" s="0"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B233" s="0"/>
-      <c r="C233" s="0"/>
+        <v>83</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>75</v>
+      </c>
       <c r="D233" t="s" s="0">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E233" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F233" s="0"/>
       <c r="G233" s="0"/>
       <c r="H233" t="s" s="0">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="I233" s="0"/>
     </row>
@@ -4871,7 +4886,7 @@
         <v>75</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E234" t="n" s="0">
         <v>2.0</v>
@@ -4884,79 +4899,79 @@
       <c r="I234" s="0"/>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="0">
-        <v>83</v>
+      <c r="A235" t="n" s="1">
+        <v>45974.0</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C235" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="D235" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E235" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F235" s="0"/>
-      <c r="G235" s="0"/>
-      <c r="H235" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="I235" s="0"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="236">
-      <c r="A236" t="n" s="1">
-        <v>45974.0</v>
+      <c r="A236" t="s" s="0">
+        <v>66</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D236" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E236" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F236" s="0"/>
+      <c r="G236" s="0"/>
+      <c r="H236" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I236" s="0"/>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="0">
-        <v>66</v>
+      <c r="A237" t="n" s="1">
+        <v>45975.0</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C237" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D237" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E237" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="F237" s="0"/>
-      <c r="G237" s="0"/>
-      <c r="H237" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="I237" s="0"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" t="n" s="1">
-        <v>45975.0</v>
+      <c r="A238" t="s" s="0">
+        <v>59</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>34</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D238" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E238" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F238" s="0"/>
+      <c r="G238" s="0"/>
+      <c r="H238" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I238" s="0"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D239" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E239" t="n" s="0">
         <v>2.0</v>
@@ -4964,48 +4979,50 @@
       <c r="F239" s="0"/>
       <c r="G239" s="0"/>
       <c r="H239" t="s" s="0">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="I239" s="0"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B240" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C240" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="D240" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E240" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F240" s="0"/>
-      <c r="G240" s="0"/>
-      <c r="H240" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="I240" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B240" t="n" s="0">
+        <v>47.0</v>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B241" t="n" s="0">
-        <v>47.0</v>
+      <c r="A241" t="n" s="1">
+        <v>45978.0</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n" s="1">
-        <v>45978.0</v>
+      <c r="A242" t="s" s="0">
+        <v>48</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D242" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E242" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F242" s="0"/>
+      <c r="G242" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H242" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I242" s="0"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
@@ -5018,14 +5035,14 @@
         <v>8</v>
       </c>
       <c r="D243" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E243" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F243" s="0"/>
       <c r="G243" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H243" t="s" s="0">
         <v>32</v>
@@ -5034,41 +5051,39 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D244" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E244" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F244" s="0"/>
-      <c r="G244" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G244" s="0"/>
       <c r="H244" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I244" s="0"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D245" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E245" t="n" s="0">
         <v>2.0</v>
@@ -5082,59 +5097,59 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D246" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E246" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F246" s="0"/>
-      <c r="G246" s="0"/>
+      <c r="G246" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="H246" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I246" s="0"/>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="0">
-        <v>69</v>
+      <c r="A247" t="n" s="1">
+        <v>45979.0</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C247" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="D247" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E247" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F247" s="0"/>
-      <c r="G247" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="H247" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="I247" s="0"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="248">
-      <c r="A248" t="n" s="1">
-        <v>45979.0</v>
+      <c r="A248" t="s" s="0">
+        <v>79</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>18</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D248" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E248" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F248" s="0"/>
+      <c r="G248" s="0"/>
+      <c r="H248" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I248" s="0"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="0">
@@ -5147,7 +5162,7 @@
         <v>82</v>
       </c>
       <c r="D249" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E249" t="n" s="0">
         <v>2.0</v>
@@ -5160,98 +5175,98 @@
       <c r="I249" s="0"/>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="0">
-        <v>79</v>
+      <c r="A250" t="n" s="1">
+        <v>45980.0</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C250" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="D250" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E250" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F250" s="0"/>
-      <c r="G250" s="0"/>
-      <c r="H250" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="I250" s="0"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="251">
-      <c r="A251" t="n" s="1">
-        <v>45980.0</v>
-      </c>
-      <c r="B251" t="s" s="0">
-        <v>23</v>
-      </c>
+      <c r="A251" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B251" s="0"/>
+      <c r="C251" s="0"/>
+      <c r="D251" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E251" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F251" s="0"/>
+      <c r="G251" s="0"/>
+      <c r="H251" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I251" s="0"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B252" s="0"/>
-      <c r="C252" s="0"/>
+        <v>67</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>68</v>
+      </c>
       <c r="D252" t="s" s="0">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E252" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F252" s="0"/>
       <c r="G252" s="0"/>
       <c r="H252" t="s" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I252" s="0"/>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="0">
-        <v>67</v>
+      <c r="A253" t="n" s="1">
+        <v>45981.0</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C253" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="D253" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E253" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F253" s="0"/>
-      <c r="G253" s="0"/>
-      <c r="H253" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="I253" s="0"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="254">
-      <c r="A254" t="n" s="1">
-        <v>45981.0</v>
+      <c r="A254" t="s" s="0">
+        <v>84</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>27</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D254" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E254" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F254" s="0"/>
+      <c r="G254" s="0"/>
+      <c r="H254" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I254" s="0"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D255" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E255" t="n" s="0">
         <v>2.0</v>
@@ -5259,22 +5274,22 @@
       <c r="F255" s="0"/>
       <c r="G255" s="0"/>
       <c r="H255" t="s" s="0">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="I255" s="0"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D256" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E256" t="n" s="0">
         <v>2.0</v>
@@ -5288,59 +5303,59 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C257" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D257" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E257" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F257" s="0"/>
-      <c r="G257" s="0"/>
+      <c r="G257" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="H257" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I257" s="0"/>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="0">
-        <v>69</v>
+      <c r="A258" t="n" s="1">
+        <v>45982.0</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C258" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="D258" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E258" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F258" s="0"/>
-      <c r="G258" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="H258" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="I258" s="0"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="259">
-      <c r="A259" t="n" s="1">
-        <v>45982.0</v>
+      <c r="A259" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>34</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D259" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E259" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F259" s="0"/>
+      <c r="G259" s="0"/>
+      <c r="H259" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I259" s="0"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
@@ -5353,7 +5368,7 @@
         <v>75</v>
       </c>
       <c r="D260" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E260" t="n" s="0">
         <v>2.0</v>
@@ -5367,16 +5382,16 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D261" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E261" t="n" s="0">
         <v>2.0</v>
@@ -5390,42 +5405,38 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="B262" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C262" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D262" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E262" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F262" s="0"/>
-      <c r="G262" s="0"/>
-      <c r="H262" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="I262" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B262" t="n" s="0">
+        <v>48.0</v>
+      </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B263" t="n" s="0">
-        <v>48.0</v>
+      <c r="A263" t="n" s="1">
+        <v>45985.0</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n" s="1">
-        <v>45985.0</v>
-      </c>
-      <c r="B264" t="s" s="0">
-        <v>1</v>
-      </c>
+      <c r="A264" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B264" s="0"/>
+      <c r="C264" s="0"/>
+      <c r="D264" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E264" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F264" s="0"/>
+      <c r="G264" s="0"/>
+      <c r="H264" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I264" s="0"/>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
@@ -5434,10 +5445,10 @@
       <c r="B265" s="0"/>
       <c r="C265" s="0"/>
       <c r="D265" t="s" s="0">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E265" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F265" s="0"/>
       <c r="G265" s="0"/>
@@ -5447,35 +5458,39 @@
       <c r="I265" s="0"/>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B266" s="0"/>
-      <c r="C266" s="0"/>
-      <c r="D266" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E266" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="F266" s="0"/>
-      <c r="G266" s="0"/>
-      <c r="H266" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="I266" s="0"/>
+      <c r="A266" t="n" s="1">
+        <v>45986.0</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>18</v>
+      </c>
     </row>
     <row r="267">
-      <c r="A267" t="n" s="1">
-        <v>45986.0</v>
+      <c r="A267" t="s" s="0">
+        <v>87</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>18</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D267" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E267" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F267" s="0"/>
+      <c r="G267" s="0"/>
+      <c r="H267" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I267" s="0"/>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B268" t="s" s="0">
         <v>88</v>
@@ -5484,7 +5499,7 @@
         <v>89</v>
       </c>
       <c r="D268" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E268" t="n" s="0">
         <v>2.0</v>
@@ -5492,57 +5507,57 @@
       <c r="F268" s="0"/>
       <c r="G268" s="0"/>
       <c r="H268" t="s" s="0">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="I268" s="0"/>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="0">
-        <v>90</v>
+      <c r="A269" t="n" s="1">
+        <v>45987.0</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C269" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="D269" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E269" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F269" s="0"/>
-      <c r="G269" s="0"/>
-      <c r="H269" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="I269" s="0"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="270">
-      <c r="A270" t="n" s="1">
-        <v>45987.0</v>
-      </c>
-      <c r="B270" t="s" s="0">
-        <v>23</v>
-      </c>
+      <c r="A270" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B270" s="0"/>
+      <c r="C270" s="0"/>
+      <c r="D270" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E270" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F270" s="0"/>
+      <c r="G270" s="0"/>
+      <c r="H270" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I270" s="0"/>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B271" s="0"/>
-      <c r="C271" s="0"/>
+        <v>44</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>75</v>
+      </c>
       <c r="D271" t="s" s="0">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E271" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F271" s="0"/>
       <c r="G271" s="0"/>
       <c r="H271" t="s" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I271" s="0"/>
     </row>
@@ -5557,7 +5572,7 @@
         <v>75</v>
       </c>
       <c r="D272" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E272" t="n" s="0">
         <v>2.0</v>
@@ -5570,48 +5585,44 @@
       <c r="I272" s="0"/>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="0">
-        <v>44</v>
+      <c r="A273" t="n" s="1">
+        <v>45988.0</v>
       </c>
       <c r="B273" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B274" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="C273" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="D273" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E273" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F273" s="0"/>
-      <c r="G273" s="0"/>
-      <c r="H273" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="I273" s="0"/>
-    </row>
-    <row r="274">
-      <c r="A274" t="n" s="1">
-        <v>45988.0</v>
-      </c>
-      <c r="B274" t="s" s="0">
-        <v>27</v>
-      </c>
+      <c r="C274" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D274" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E274" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F274" s="0"/>
+      <c r="G274" s="0"/>
+      <c r="H274" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I274" s="0"/>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B275" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C275" t="s" s="0">
-        <v>46</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B275" s="0"/>
+      <c r="C275" s="0"/>
       <c r="D275" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E275" t="n" s="0">
         <v>2.0</v>
@@ -5619,26 +5630,32 @@
       <c r="F275" s="0"/>
       <c r="G275" s="0"/>
       <c r="H275" t="s" s="0">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="I275" s="0"/>
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B276" s="0"/>
-      <c r="C276" s="0"/>
+        <v>69</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>70</v>
+      </c>
       <c r="D276" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E276" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F276" s="0"/>
-      <c r="G276" s="0"/>
+      <c r="G276" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="H276" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I276" s="0"/>
     </row>
@@ -5660,7 +5677,7 @@
       </c>
       <c r="F277" s="0"/>
       <c r="G277" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H277" t="s" s="0">
         <v>32</v>
@@ -5668,50 +5685,48 @@
       <c r="I277" s="0"/>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="0">
-        <v>69</v>
+      <c r="A278" t="n" s="1">
+        <v>45989.0</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C278" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="D278" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E278" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F278" s="0"/>
-      <c r="G278" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="H278" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="I278" s="0"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="279">
-      <c r="A279" t="n" s="1">
-        <v>45989.0</v>
+      <c r="A279" t="s" s="0">
+        <v>92</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>34</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D279" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E279" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F279" s="0"/>
+      <c r="G279" s="0"/>
+      <c r="H279" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I279" s="0"/>
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D280" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E280" t="n" s="0">
         <v>2.0</v>
@@ -5719,7 +5734,7 @@
       <c r="F280" s="0"/>
       <c r="G280" s="0"/>
       <c r="H280" t="s" s="0">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="I280" s="0"/>
     </row>
@@ -5734,7 +5749,7 @@
         <v>75</v>
       </c>
       <c r="D281" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E281" t="n" s="0">
         <v>2.0</v>
@@ -5748,42 +5763,42 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B282" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C282" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="D282" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E282" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F282" s="0"/>
-      <c r="G282" s="0"/>
-      <c r="H282" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="I282" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B282" t="n" s="0">
+        <v>49.0</v>
+      </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B283" t="n" s="0">
-        <v>49.0</v>
+      <c r="A283" t="n" s="1">
+        <v>45992.0</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n" s="1">
-        <v>45992.0</v>
+      <c r="A284" t="s" s="0">
+        <v>87</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D284" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E284" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F284" s="0"/>
+      <c r="G284" s="0"/>
+      <c r="H284" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I284" s="0"/>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
@@ -5796,7 +5811,7 @@
         <v>89</v>
       </c>
       <c r="D285" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E285" t="n" s="0">
         <v>2.0</v>
@@ -5810,16 +5825,16 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D286" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E286" t="n" s="0">
         <v>2.0</v>
@@ -5827,7 +5842,7 @@
       <c r="F286" s="0"/>
       <c r="G286" s="0"/>
       <c r="H286" t="s" s="0">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I286" s="0"/>
     </row>
@@ -5842,7 +5857,7 @@
         <v>65</v>
       </c>
       <c r="D287" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E287" t="n" s="0">
         <v>2.0</v>
@@ -5855,35 +5870,35 @@
       <c r="I287" s="0"/>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="0">
-        <v>86</v>
+      <c r="A288" t="n" s="1">
+        <v>45993.0</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C288" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D288" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E288" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F288" s="0"/>
-      <c r="G288" s="0"/>
-      <c r="H288" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="I288" s="0"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="289">
-      <c r="A289" t="n" s="1">
-        <v>45993.0</v>
+      <c r="A289" t="s" s="0">
+        <v>79</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>18</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D289" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E289" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F289" s="0"/>
+      <c r="G289" s="0"/>
+      <c r="H289" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I289" s="0"/>
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
@@ -5896,7 +5911,7 @@
         <v>82</v>
       </c>
       <c r="D290" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E290" t="n" s="0">
         <v>2.0</v>
@@ -5909,47 +5924,43 @@
       <c r="I290" s="0"/>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="0">
-        <v>79</v>
+      <c r="A291" t="n" s="1">
+        <v>45994.0</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C291" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="D291" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E291" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F291" s="0"/>
-      <c r="G291" s="0"/>
-      <c r="H291" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="I291" s="0"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="292">
-      <c r="A292" t="n" s="1">
-        <v>45994.0</v>
-      </c>
-      <c r="B292" t="s" s="0">
-        <v>23</v>
-      </c>
+      <c r="A292" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B292" s="0"/>
+      <c r="C292" s="0"/>
+      <c r="D292" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E292" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F292" s="0"/>
+      <c r="G292" s="0"/>
+      <c r="H292" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I292" s="0"/>
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B293" s="0"/>
       <c r="C293" s="0"/>
       <c r="D293" t="s" s="0">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E293" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F293" s="0"/>
       <c r="G293" s="0"/>
@@ -5960,66 +5971,70 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B294" s="0"/>
-      <c r="C294" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>65</v>
+      </c>
       <c r="D294" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E294" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F294" s="0"/>
       <c r="G294" s="0"/>
       <c r="H294" t="s" s="0">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="I294" s="0"/>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="0">
-        <v>86</v>
+      <c r="A295" t="n" s="1">
+        <v>45995.0</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C295" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D295" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E295" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="F295" s="0"/>
-      <c r="G295" s="0"/>
-      <c r="H295" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="I295" s="0"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="296">
-      <c r="A296" t="n" s="1">
-        <v>45995.0</v>
+      <c r="A296" t="s" s="0">
+        <v>93</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D296" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E296" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F296" s="0"/>
+      <c r="G296" s="0"/>
+      <c r="H296" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I296" s="0"/>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D297" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E297" t="n" s="0">
         <v>2.0</v>
@@ -6027,13 +6042,13 @@
       <c r="F297" s="0"/>
       <c r="G297" s="0"/>
       <c r="H297" t="s" s="0">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="I297" s="0"/>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B298" t="s" s="0">
         <v>88</v>
@@ -6042,15 +6057,17 @@
         <v>54</v>
       </c>
       <c r="D298" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E298" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F298" s="0"/>
-      <c r="G298" s="0"/>
+      <c r="G298" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="H298" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I298" s="0"/>
     </row>
@@ -6072,7 +6089,7 @@
       </c>
       <c r="F299" s="0"/>
       <c r="G299" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H299" t="s" s="0">
         <v>32</v>
@@ -6081,45 +6098,45 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B300" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C300" t="s" s="0">
-        <v>54</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B300" s="0"/>
+      <c r="C300" s="0"/>
       <c r="D300" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E300" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F300" s="0"/>
-      <c r="G300" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G300" s="0"/>
       <c r="H300" t="s" s="0">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I300" s="0"/>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B301" s="0"/>
-      <c r="C301" s="0"/>
+        <v>94</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>54</v>
+      </c>
       <c r="D301" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E301" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F301" s="0"/>
-      <c r="G301" s="0"/>
+      <c r="G301" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="H301" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I301" s="0"/>
     </row>
@@ -6141,7 +6158,7 @@
       </c>
       <c r="F302" s="0"/>
       <c r="G302" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H302" t="s" s="0">
         <v>32</v>
@@ -6149,72 +6166,72 @@
       <c r="I302" s="0"/>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="0">
-        <v>94</v>
+      <c r="A303" t="n" s="1">
+        <v>45996.0</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C303" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="D303" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E303" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F303" s="0"/>
-      <c r="G303" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="H303" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="I303" s="0"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="304">
-      <c r="A304" t="n" s="1">
-        <v>45996.0</v>
-      </c>
-      <c r="B304" t="s" s="0">
-        <v>34</v>
-      </c>
+      <c r="A304" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B304" s="0"/>
+      <c r="C304" s="0"/>
+      <c r="D304" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E304" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F304" s="0"/>
+      <c r="G304" s="0"/>
+      <c r="H304" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I304" s="0"/>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B305" s="0"/>
-      <c r="C305" s="0"/>
-      <c r="D305" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E305" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="F305" s="0"/>
-      <c r="G305" s="0"/>
-      <c r="H305" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="I305" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B305" t="n" s="0">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B306" t="n" s="0">
-        <v>50.0</v>
+      <c r="A306" t="n" s="1">
+        <v>45999.0</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="n" s="1">
-        <v>45999.0</v>
+      <c r="A307" t="s" s="0">
+        <v>48</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D307" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E307" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F307" s="0"/>
+      <c r="G307" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H307" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I307" s="0"/>
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
@@ -6227,14 +6244,14 @@
         <v>8</v>
       </c>
       <c r="D308" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E308" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F308" s="0"/>
       <c r="G308" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H308" t="s" s="0">
         <v>32</v>
@@ -6243,23 +6260,21 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B309" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C309" t="s" s="0">
-        <v>8</v>
-      </c>
+      <c r="C309" s="0"/>
       <c r="D309" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E309" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F309" s="0"/>
       <c r="G309" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H309" t="s" s="0">
         <v>32</v>
@@ -6268,195 +6283,195 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B310" t="s" s="0">
-        <v>7</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B310" s="0"/>
       <c r="C310" s="0"/>
       <c r="D310" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E310" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F310" s="0"/>
-      <c r="G310" t="s" s="0">
-        <v>31</v>
-      </c>
+      <c r="G310" s="0"/>
       <c r="H310" t="s" s="0">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I310" s="0"/>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B311" s="0"/>
+        <v>95</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>7</v>
+      </c>
       <c r="C311" s="0"/>
       <c r="D311" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E311" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F311" s="0"/>
-      <c r="G311" s="0"/>
+      <c r="G311" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="H311" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I311" s="0"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="n" s="1">
+        <v>46000.0</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B313" s="0"/>
+      <c r="C313" s="0"/>
+      <c r="D313" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E313" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F313" s="0"/>
+      <c r="G313" s="0"/>
+      <c r="H313" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="I311" s="0"/>
-    </row>
-    <row r="312">
-      <c r="A312" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B312" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C312" s="0"/>
-      <c r="D312" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E312" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F312" s="0"/>
-      <c r="G312" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="H312" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="I312" s="0"/>
-    </row>
-    <row r="313">
-      <c r="A313" t="n" s="1">
-        <v>46000.0</v>
-      </c>
-      <c r="B313" t="s" s="0">
-        <v>18</v>
-      </c>
+      <c r="I313" s="0"/>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B314" s="0"/>
+        <v>95</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>7</v>
+      </c>
       <c r="C314" s="0"/>
       <c r="D314" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E314" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F314" s="0"/>
-      <c r="G314" s="0"/>
+      <c r="G314" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="H314" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I314" s="0"/>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B315" t="s" s="0">
-        <v>7</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B315" s="0"/>
       <c r="C315" s="0"/>
       <c r="D315" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E315" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F315" s="0"/>
-      <c r="G315" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G315" s="0"/>
       <c r="H315" t="s" s="0">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I315" s="0"/>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B316" s="0"/>
+        <v>95</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>7</v>
+      </c>
       <c r="C316" s="0"/>
       <c r="D316" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E316" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F316" s="0"/>
-      <c r="G316" s="0"/>
+      <c r="G316" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="H316" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I316" s="0"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="n" s="1">
+        <v>46001.0</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B318" s="0"/>
+      <c r="C318" s="0"/>
+      <c r="D318" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E318" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F318" s="0"/>
+      <c r="G318" s="0"/>
+      <c r="H318" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="I316" s="0"/>
-    </row>
-    <row r="317">
-      <c r="A317" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B317" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C317" s="0"/>
-      <c r="D317" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E317" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F317" s="0"/>
-      <c r="G317" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="H317" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="I317" s="0"/>
-    </row>
-    <row r="318">
-      <c r="A318" t="n" s="1">
-        <v>46001.0</v>
-      </c>
-      <c r="B318" t="s" s="0">
-        <v>23</v>
-      </c>
+      <c r="I318" s="0"/>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B319" s="0"/>
-      <c r="C319" s="0"/>
-      <c r="D319" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E319" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="F319" s="0"/>
-      <c r="G319" s="0"/>
-      <c r="H319" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="I319" s="0"/>
+      <c r="A319" t="n" s="1">
+        <v>46002.0</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="320">
-      <c r="A320" t="n" s="1">
-        <v>46002.0</v>
+      <c r="A320" t="s" s="0">
+        <v>87</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>27</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D320" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E320" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F320" s="0"/>
+      <c r="G320" s="0"/>
+      <c r="H320" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I320" s="0"/>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
@@ -6469,7 +6484,7 @@
         <v>54</v>
       </c>
       <c r="D321" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E321" t="n" s="0">
         <v>2.0</v>
@@ -6492,7 +6507,7 @@
         <v>54</v>
       </c>
       <c r="D322" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E322" t="n" s="0">
         <v>2.0</v>
@@ -6505,35 +6520,35 @@
       <c r="I322" s="0"/>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="0">
-        <v>87</v>
+      <c r="A323" t="n" s="1">
+        <v>46003.0</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C323" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="D323" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E323" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F323" s="0"/>
-      <c r="G323" s="0"/>
-      <c r="H323" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="I323" s="0"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="324">
-      <c r="A324" t="n" s="1">
-        <v>46003.0</v>
+      <c r="A324" t="s" s="0">
+        <v>67</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>34</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D324" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E324" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F324" s="0"/>
+      <c r="G324" s="0"/>
+      <c r="H324" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="I324" s="0"/>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
@@ -6546,7 +6561,7 @@
         <v>68</v>
       </c>
       <c r="D325" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E325" t="n" s="0">
         <v>2.0</v>
@@ -6560,16 +6575,16 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="D326" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E326" t="n" s="0">
         <v>2.0</v>
@@ -6592,7 +6607,7 @@
         <v>13</v>
       </c>
       <c r="D327" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E327" t="n" s="0">
         <v>2.0</v>
@@ -6606,42 +6621,42 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B328" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C328" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D328" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E328" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F328" s="0"/>
-      <c r="G328" s="0"/>
-      <c r="H328" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="I328" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B328" t="n" s="0">
+        <v>51.0</v>
+      </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B329" t="n" s="0">
-        <v>51.0</v>
+      <c r="A329" t="n" s="1">
+        <v>46006.0</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n" s="1">
-        <v>46006.0</v>
+      <c r="A330" t="s" s="0">
+        <v>96</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C330" s="0"/>
+      <c r="D330" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E330" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F330" s="0"/>
+      <c r="G330" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H330" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I330" s="0"/>
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
@@ -6659,7 +6674,7 @@
       </c>
       <c r="F331" s="0"/>
       <c r="G331" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H331" t="s" s="0">
         <v>32</v>
@@ -6668,21 +6683,23 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C332" s="0"/>
+        <v>21</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>70</v>
+      </c>
       <c r="D332" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E332" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F332" s="0"/>
       <c r="G332" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H332" t="s" s="0">
         <v>32</v>
@@ -6700,14 +6717,14 @@
         <v>70</v>
       </c>
       <c r="D333" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E333" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F333" s="0"/>
       <c r="G333" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H333" t="s" s="0">
         <v>32</v>
@@ -6716,72 +6733,72 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B334" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C334" t="s" s="0">
-        <v>70</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B334" s="0"/>
+      <c r="C334" s="0"/>
       <c r="D334" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E334" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F334" s="0"/>
-      <c r="G334" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G334" s="0"/>
       <c r="H334" t="s" s="0">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I334" s="0"/>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="0">
+      <c r="A335" t="n" s="1">
+        <v>46007.0</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B335" s="0"/>
-      <c r="C335" s="0"/>
-      <c r="D335" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E335" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F335" s="0"/>
-      <c r="G335" s="0"/>
-      <c r="H335" t="s" s="0">
+      <c r="B336" s="0"/>
+      <c r="C336" s="0"/>
+      <c r="D336" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E336" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F336" s="0"/>
+      <c r="G336" s="0"/>
+      <c r="H336" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="I335" s="0"/>
-    </row>
-    <row r="336">
-      <c r="A336" t="n" s="1">
-        <v>46007.0</v>
-      </c>
-      <c r="B336" t="s" s="0">
-        <v>18</v>
-      </c>
+      <c r="I336" s="0"/>
     </row>
     <row r="337">
       <c r="A337" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B337" s="0"/>
-      <c r="C337" s="0"/>
+        <v>97</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>89</v>
+      </c>
       <c r="D337" t="s" s="0">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E337" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F337" s="0"/>
-      <c r="G337" s="0"/>
+      <c r="G337" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="H337" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I337" s="0"/>
     </row>
@@ -6803,7 +6820,7 @@
       </c>
       <c r="F338" s="0"/>
       <c r="G338" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H338" t="s" s="0">
         <v>32</v>
@@ -6812,71 +6829,65 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D339" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E339" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F339" s="0"/>
-      <c r="G339" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G339" s="0"/>
       <c r="H339" t="s" s="0">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I339" s="0"/>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="0">
-        <v>52</v>
+      <c r="A340" t="n" s="1">
+        <v>46008.0</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C340" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="D340" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E340" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F340" s="0"/>
-      <c r="G340" s="0"/>
-      <c r="H340" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="I340" s="0"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="341">
-      <c r="A341" t="n" s="1">
-        <v>46008.0</v>
-      </c>
-      <c r="B341" t="s" s="0">
-        <v>23</v>
-      </c>
+      <c r="A341" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B341" s="0"/>
+      <c r="C341" s="0"/>
+      <c r="D341" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E341" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F341" s="0"/>
+      <c r="G341" s="0"/>
+      <c r="H341" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I341" s="0"/>
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B342" s="0"/>
       <c r="C342" s="0"/>
       <c r="D342" t="s" s="0">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E342" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F342" s="0"/>
       <c r="G342" s="0"/>
@@ -6887,42 +6898,46 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B343" s="0"/>
-      <c r="C343" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>99</v>
+      </c>
       <c r="D343" t="s" s="0">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E343" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F343" s="0"/>
+        <v>1.0</v>
+      </c>
+      <c r="F343" t="s" s="0">
+        <v>65</v>
+      </c>
       <c r="G343" s="0"/>
       <c r="H343" t="s" s="0">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="I343" s="0"/>
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="D344" t="s" s="0">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E344" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="F344" t="s" s="0">
-        <v>65</v>
-      </c>
+      <c r="F344" s="0"/>
       <c r="G344" s="0"/>
       <c r="H344" t="s" s="0">
         <v>58</v>
@@ -6930,75 +6945,77 @@
       <c r="I344" s="0"/>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="0">
-        <v>101</v>
+      <c r="A345" t="n" s="1">
+        <v>46009.0</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C345" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D345" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E345" t="n" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D346" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E346" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="F345" s="0"/>
-      <c r="G345" s="0"/>
-      <c r="H345" t="s" s="0">
+      <c r="F346" s="0"/>
+      <c r="G346" s="0"/>
+      <c r="H346" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="I345" s="0"/>
-    </row>
-    <row r="346">
-      <c r="A346" t="n" s="1">
-        <v>46009.0</v>
-      </c>
-      <c r="B346" t="s" s="0">
-        <v>27</v>
-      </c>
+      <c r="I346" s="0"/>
     </row>
     <row r="347">
       <c r="A347" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="B347" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C347" t="s" s="0">
-        <v>68</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B347" s="0"/>
+      <c r="C347" s="0"/>
       <c r="D347" t="s" s="0">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E347" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F347" s="0"/>
       <c r="G347" s="0"/>
       <c r="H347" t="s" s="0">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="I347" s="0"/>
     </row>
     <row r="348">
       <c r="A348" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B348" s="0"/>
-      <c r="C348" s="0"/>
+        <v>97</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>89</v>
+      </c>
       <c r="D348" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E348" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F348" s="0"/>
-      <c r="G348" s="0"/>
+      <c r="G348" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="H348" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I348" s="0"/>
     </row>
@@ -7020,7 +7037,7 @@
       </c>
       <c r="F349" s="0"/>
       <c r="G349" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H349" t="s" s="0">
         <v>32</v>
@@ -7029,82 +7046,57 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B350" t="s" s="0">
         <v>88</v>
       </c>
       <c r="C350" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D350" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E350" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F350" s="0"/>
-      <c r="G350" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="G350" s="0"/>
       <c r="H350" t="s" s="0">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I350" s="0"/>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="0">
-        <v>104</v>
+      <c r="A351" t="n" s="1">
+        <v>46010.0</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C351" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="D351" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E351" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F351" s="0"/>
-      <c r="G351" s="0"/>
-      <c r="H351" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D352" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E352" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F352" s="0"/>
+      <c r="G352" s="0"/>
+      <c r="H352" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="I351" s="0"/>
-    </row>
-    <row r="352">
-      <c r="A352" t="n" s="1">
-        <v>46010.0</v>
-      </c>
-      <c r="B352" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="B353" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C353" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D353" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E353" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="F353" s="0"/>
-      <c r="G353" s="0"/>
-      <c r="H353" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="I353" s="0"/>
+      <c r="I352" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/all.xlsx
+++ b/all.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="108">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -38,147 +38,150 @@
     <t>KRTA9AA3</t>
   </si>
   <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>TYPE_COURS</t>
+  </si>
+  <si>
+    <t>SI - C (KRTX9AA2)</t>
+  </si>
+  <si>
+    <t>KRTX9AA2</t>
+  </si>
+  <si>
+    <t>AnAn</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>ESE - C (KRTX9AC1)</t>
+  </si>
+  <si>
+    <t>KRTX9AC1</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>TR - C (KRTX9AA1)</t>
+  </si>
+  <si>
+    <t>KRTX9AA1</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>Langues / TOEIC</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>jeudi</t>
+  </si>
+  <si>
+    <t>YL</t>
+  </si>
+  <si>
+    <t>ESE - TP (KRTX9AC1) (AnAn)</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TYPE_TP</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t>Ing. Liaison - C (KRTX9AB2)</t>
+  </si>
+  <si>
+    <t>KRTX9AB2</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (MOOC/BE/Projet…)</t>
+  </si>
+  <si>
+    <t>SI - TP (KRTX9AA2) (AnAn)</t>
+  </si>
+  <si>
+    <t>Langues</t>
+  </si>
+  <si>
+    <t>FSQTEL - C (KRTX9AB1)</t>
+  </si>
+  <si>
+    <t>KRTX9AB1</t>
+  </si>
+  <si>
+    <t>JGT</t>
+  </si>
+  <si>
+    <t>TR - TD (KRTX9AA1)</t>
+  </si>
+  <si>
+    <t>TYPE_TD</t>
+  </si>
+  <si>
+    <t>SI - TD (KRTX9AA2)</t>
+  </si>
+  <si>
+    <t>Sécurité - TP (KRTA9AA3) (FC)</t>
+  </si>
+  <si>
+    <t>Management ITIL - C (KRTA9AD2)</t>
+  </si>
+  <si>
+    <t>KRTA9AD2</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>Sécurité - TP (KRTA9AA3) (PL)</t>
+  </si>
+  <si>
     <t>PL</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>TYPE_COURS</t>
-  </si>
-  <si>
-    <t>SI - C (KRTX9AA2)</t>
-  </si>
-  <si>
-    <t>KRTX9AA2</t>
-  </si>
-  <si>
-    <t>AnAn</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>ESE - C (KRTX9AC1)</t>
-  </si>
-  <si>
-    <t>KRTX9AC1</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>mardi</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>TR - C (KRTX9AA1)</t>
-  </si>
-  <si>
-    <t>KRTX9AA1</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>mercredi</t>
-  </si>
-  <si>
-    <t>Langues / TOEIC</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>jeudi</t>
-  </si>
-  <si>
-    <t>YL</t>
-  </si>
-  <si>
-    <t>ESE - TP (KRTX9AC1) (AnAn)</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TYPE_TP</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>vendredi</t>
-  </si>
-  <si>
-    <t>Ing. Liaison - C (KRTX9AB2)</t>
-  </si>
-  <si>
-    <t>KRTX9AB2</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>SI - TD (KRTX9AA2)</t>
-  </si>
-  <si>
-    <t>TYPE_TD</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (MOOC/BE/Projet…)</t>
-  </si>
-  <si>
-    <t>SI - TP (KRTX9AA2) (AnAn)</t>
-  </si>
-  <si>
-    <t>Langues</t>
-  </si>
-  <si>
-    <t>FSQTEL - C (KRTX9AB1)</t>
-  </si>
-  <si>
-    <t>KRTX9AB1</t>
-  </si>
-  <si>
-    <t>JGT</t>
-  </si>
-  <si>
-    <t>TR - TD (KRTX9AA1)</t>
-  </si>
-  <si>
-    <t>Sécurité - TP (KRTA9AA3) (PL)</t>
-  </si>
-  <si>
-    <t>Management ITIL - C (KRTA9AD2)</t>
-  </si>
-  <si>
-    <t>KRTA9AD2</t>
-  </si>
-  <si>
-    <t>FG</t>
-  </si>
-  <si>
     <t>Législation - C (KRTA9AD1)</t>
   </si>
   <si>
     <t>KRTA9AD1</t>
   </si>
   <si>
-    <t>FC</t>
-  </si>
-  <si>
     <t>Ing. Liaison - TP (KRTX9AB2) (EG/FM)</t>
   </si>
   <si>
@@ -233,28 +236,28 @@
     <t>MC/FM</t>
   </si>
   <si>
+    <t>TAS</t>
+  </si>
+  <si>
+    <t>MOOC/BE/Projet…</t>
+  </si>
+  <si>
     <t>SI - TP (KRTX9AA2) (SY)</t>
   </si>
   <si>
     <t>SY</t>
   </si>
   <si>
-    <t>TAS</t>
-  </si>
-  <si>
-    <t>MOOC/BE/Projet…</t>
-  </si>
-  <si>
     <t>Législation - TD (KRTA9AD1)</t>
   </si>
   <si>
+    <t>Cloud - C (KRTA9AA3)</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
     <t xml:space="preserve"> (BE/Projet…)</t>
-  </si>
-  <si>
-    <t>Cloud - C (KRTA9AA3)</t>
-  </si>
-  <si>
-    <t>AA</t>
   </si>
   <si>
     <t>Séminaire entreprises</t>
@@ -501,13 +504,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>14</v>
@@ -524,13 +527,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="C9" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>17</v>
@@ -550,17 +553,17 @@
         <v>45910.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
       <c r="D11" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n" s="0">
         <v>4.0</v>
@@ -580,7 +583,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>14</v>
@@ -600,7 +603,7 @@
         <v>45911.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +614,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>14</v>
@@ -634,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>17</v>
@@ -651,7 +654,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>16</v>
@@ -660,23 +663,23 @@
         <v>13</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>16</v>
@@ -685,17 +688,17 @@
         <v>13</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="0"/>
     </row>
@@ -704,15 +707,15 @@
         <v>45912.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>21</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>3</v>
@@ -732,13 +735,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="C20" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>37</v>
       </c>
       <c r="D20" t="s" s="0">
         <v>9</v>
@@ -755,13 +758,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s" s="0">
         <v>14</v>
@@ -772,19 +775,19 @@
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" t="s" s="0">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>36</v>
-      </c>
       <c r="C22" t="s" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s" s="0">
         <v>17</v>
@@ -863,10 +866,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>21</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>3</v>
@@ -886,7 +889,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>16</v>
@@ -902,16 +905,16 @@
       </c>
       <c r="F28" s="0"/>
       <c r="G28" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>16</v>
@@ -920,17 +923,17 @@
         <v>13</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I29" s="0"/>
     </row>
@@ -950,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>14</v>
@@ -967,7 +970,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -986,7 +989,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>12</v>
@@ -995,23 +998,23 @@
         <v>13</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>12</v>
@@ -1020,17 +1023,17 @@
         <v>13</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I34" s="0"/>
     </row>
@@ -1039,17 +1042,17 @@
         <v>45917.0</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" t="n" s="0">
         <v>4.0</v>
@@ -1063,13 +1066,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>46</v>
       </c>
       <c r="D37" t="s" s="0">
         <v>14</v>
@@ -1086,10 +1089,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>3</v>
@@ -1103,7 +1106,7 @@
       <c r="F38" s="0"/>
       <c r="G38" s="0"/>
       <c r="H38" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I38" s="0"/>
     </row>
@@ -1112,18 +1115,18 @@
         <v>45918.0</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="C40" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>37</v>
       </c>
       <c r="D40" t="s" s="0">
         <v>4</v>
@@ -1140,13 +1143,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>46</v>
       </c>
       <c r="D41" t="s" s="0">
         <v>9</v>
@@ -1169,7 +1172,7 @@
         <v>16</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s" s="0">
         <v>14</v>
@@ -1192,7 +1195,7 @@
         <v>16</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s" s="0">
         <v>17</v>
@@ -1212,12 +1215,12 @@
         <v>45919.0</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -1236,13 +1239,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>46</v>
       </c>
       <c r="D46" t="s" s="0">
         <v>9</v>
@@ -1259,13 +1262,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s" s="0">
         <v>14</v>
@@ -1276,19 +1279,19 @@
       <c r="F47" s="0"/>
       <c r="G47" s="0"/>
       <c r="H47" t="s" s="0">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B48" t="s" s="0">
+      <c r="C48" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="D48" t="s" s="0">
         <v>17</v>
@@ -1337,10 +1340,10 @@
       </c>
       <c r="F51" s="0"/>
       <c r="G51" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I51" s="0"/>
     </row>
@@ -1362,10 +1365,10 @@
       </c>
       <c r="F52" s="0"/>
       <c r="G52" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I52" s="0"/>
     </row>
@@ -1377,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s" s="0">
         <v>14</v>
@@ -1400,7 +1403,7 @@
         <v>16</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s" s="0">
         <v>17</v>
@@ -1425,13 +1428,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s" s="0">
         <v>14</v>
@@ -1442,19 +1445,19 @@
       <c r="F56" s="0"/>
       <c r="G56" s="0"/>
       <c r="H56" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B57" t="s" s="0">
-        <v>36</v>
-      </c>
       <c r="C57" t="s" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s" s="0">
         <v>17</v>
@@ -1471,7 +1474,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>16</v>
@@ -1480,23 +1483,23 @@
         <v>13</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E58" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F58" s="0"/>
       <c r="G58" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>16</v>
@@ -1505,17 +1508,17 @@
         <v>13</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F59" s="0"/>
       <c r="G59" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H59" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I59" s="0"/>
     </row>
@@ -1524,20 +1527,20 @@
         <v>45924.0</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
       <c r="D61" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F61" s="0"/>
       <c r="G61" s="0"/>
@@ -1597,18 +1600,18 @@
         <v>45925.0</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B65" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B65" t="s" s="0">
+      <c r="C65" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="C65" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="D65" t="s" s="0">
         <v>9</v>
@@ -1648,13 +1651,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="C67" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="D67" t="s" s="0">
         <v>17</v>
@@ -1665,7 +1668,7 @@
       <c r="F67" s="0"/>
       <c r="G67" s="0"/>
       <c r="H67" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I67" s="0"/>
     </row>
@@ -1674,12 +1677,12 @@
         <v>45926.0</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B69" s="0"/>
       <c r="C69" s="0"/>
@@ -1698,13 +1701,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B70" t="s" s="0">
+      <c r="C70" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>37</v>
       </c>
       <c r="D70" t="s" s="0">
         <v>9</v>
@@ -1721,13 +1724,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s" s="0">
         <v>14</v>
@@ -1783,13 +1786,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D75" t="s" s="0">
         <v>4</v>
@@ -1799,22 +1802,22 @@
       </c>
       <c r="F75" s="0"/>
       <c r="G75" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I75" s="0"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D76" t="s" s="0">
         <v>9</v>
@@ -1824,16 +1827,16 @@
       </c>
       <c r="F76" s="0"/>
       <c r="G76" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I76" s="0"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B77" s="0"/>
       <c r="C77" s="0"/>
@@ -1883,10 +1886,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="B80" t="s" s="0">
-        <v>21</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>3</v>
@@ -1906,13 +1909,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B81" t="s" s="0">
-        <v>36</v>
-      </c>
       <c r="C81" t="s" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s" s="0">
         <v>9</v>
@@ -1935,7 +1938,7 @@
         <v>12</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D82" t="s" s="0">
         <v>14</v>
@@ -1978,17 +1981,17 @@
         <v>45931.0</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B85" s="0"/>
       <c r="C85" s="0"/>
       <c r="D85" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E85" t="n" s="0">
         <v>4.0</v>
@@ -2002,13 +2005,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C86" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="B86" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C86" t="s" s="0">
-        <v>46</v>
       </c>
       <c r="D86" t="s" s="0">
         <v>14</v>
@@ -2025,13 +2028,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C87" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="B87" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C87" t="s" s="0">
-        <v>46</v>
       </c>
       <c r="D87" t="s" s="0">
         <v>17</v>
@@ -2051,18 +2054,18 @@
         <v>45932.0</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s" s="0">
         <v>9</v>
@@ -2085,7 +2088,7 @@
         <v>16</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s" s="0">
         <v>14</v>
@@ -2108,7 +2111,7 @@
         <v>16</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s" s="0">
         <v>17</v>
@@ -2128,18 +2131,18 @@
         <v>45933.0</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D93" t="s" s="0">
         <v>4</v>
@@ -2149,22 +2152,22 @@
       </c>
       <c r="F93" s="0"/>
       <c r="G93" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I93" s="0"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D94" t="s" s="0">
         <v>4</v>
@@ -2174,22 +2177,22 @@
       </c>
       <c r="F94" s="0"/>
       <c r="G94" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H94" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I94" s="0"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D95" t="s" s="0">
         <v>9</v>
@@ -2199,22 +2202,22 @@
       </c>
       <c r="F95" s="0"/>
       <c r="G95" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I95" s="0"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D96" t="s" s="0">
         <v>9</v>
@@ -2224,10 +2227,10 @@
       </c>
       <c r="F96" s="0"/>
       <c r="G96" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H96" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I96" s="0"/>
     </row>
@@ -2239,7 +2242,7 @@
         <v>12</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D97" t="s" s="0">
         <v>14</v>
@@ -2272,13 +2275,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D100" t="s" s="0">
         <v>4</v>
@@ -2288,22 +2291,22 @@
       </c>
       <c r="F100" s="0"/>
       <c r="G100" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H100" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I100" s="0"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D101" t="s" s="0">
         <v>9</v>
@@ -2313,22 +2316,22 @@
       </c>
       <c r="F101" s="0"/>
       <c r="G101" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H101" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I101" s="0"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B102" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C102" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="C102" t="s" s="0">
-        <v>37</v>
       </c>
       <c r="D102" t="s" s="0">
         <v>14</v>
@@ -2339,7 +2342,7 @@
       <c r="F102" s="0"/>
       <c r="G102" s="0"/>
       <c r="H102" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I102" s="0"/>
     </row>
@@ -2428,7 +2431,7 @@
         <v>16</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D107" t="s" s="0">
         <v>14</v>
@@ -2471,17 +2474,17 @@
         <v>45938.0</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B110" s="0"/>
       <c r="C110" s="0"/>
       <c r="D110" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E110" t="n" s="0">
         <v>4.0</v>
@@ -2495,13 +2498,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D111" t="s" s="0">
         <v>14</v>
@@ -2518,13 +2521,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D112" t="s" s="0">
         <v>17</v>
@@ -2544,12 +2547,12 @@
         <v>45939.0</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B114" s="0"/>
       <c r="C114" s="0"/>
@@ -2571,18 +2574,18 @@
         <v>45940.0</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s" s="0">
         <v>4</v>
@@ -2599,13 +2602,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s" s="0">
         <v>9</v>
@@ -2622,7 +2625,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B118" t="s" s="0">
         <v>16</v>
@@ -2638,16 +2641,16 @@
       </c>
       <c r="F118" s="0"/>
       <c r="G118" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H118" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I118" s="0"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B119" t="s" s="0">
         <v>16</v>
@@ -2663,10 +2666,10 @@
       </c>
       <c r="F119" s="0"/>
       <c r="G119" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H119" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I119" s="0"/>
     </row>
@@ -2688,13 +2691,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B122" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D122" t="s" s="0">
         <v>4</v>
@@ -2704,22 +2707,22 @@
       </c>
       <c r="F122" s="0"/>
       <c r="G122" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H122" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I122" s="0"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B123" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D123" t="s" s="0">
         <v>9</v>
@@ -2729,22 +2732,22 @@
       </c>
       <c r="F123" s="0"/>
       <c r="G123" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H123" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I123" s="0"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D124" t="s" s="0">
         <v>14</v>
@@ -2755,7 +2758,7 @@
       <c r="F124" s="0"/>
       <c r="G124" s="0"/>
       <c r="H124" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I124" s="0"/>
     </row>
@@ -2778,7 +2781,7 @@
       <c r="F125" s="0"/>
       <c r="G125" s="0"/>
       <c r="H125" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I125" s="0"/>
     </row>
@@ -2798,7 +2801,7 @@
         <v>16</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D127" t="s" s="0">
         <v>14</v>
@@ -2815,7 +2818,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B128" t="s" s="0">
         <v>12</v>
@@ -2824,23 +2827,23 @@
         <v>13</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E128" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F128" s="0"/>
       <c r="G128" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H128" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I128" s="0"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B129" t="s" s="0">
         <v>12</v>
@@ -2849,17 +2852,17 @@
         <v>13</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E129" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F129" s="0"/>
       <c r="G129" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H129" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I129" s="0"/>
     </row>
@@ -2868,17 +2871,17 @@
         <v>45945.0</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B131" s="0"/>
       <c r="C131" s="0"/>
       <c r="D131" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E131" t="n" s="0">
         <v>4.0</v>
@@ -2892,13 +2895,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D132" t="s" s="0">
         <v>14</v>
@@ -2909,19 +2912,19 @@
       <c r="F132" s="0"/>
       <c r="G132" s="0"/>
       <c r="H132" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I132" s="0"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D133" t="s" s="0">
         <v>17</v>
@@ -2941,18 +2944,18 @@
         <v>45946.0</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B135" t="s" s="0">
         <v>16</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" t="s" s="0">
         <v>4</v>
@@ -2963,19 +2966,19 @@
       <c r="F135" s="0"/>
       <c r="G135" s="0"/>
       <c r="H135" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I135" s="0"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D136" t="s" s="0">
         <v>9</v>
@@ -2992,7 +2995,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B137" t="s" s="0">
         <v>16</v>
@@ -3008,22 +3011,22 @@
       </c>
       <c r="F137" s="0"/>
       <c r="G137" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H137" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I137" s="0"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D138" t="s" s="0">
         <v>17</v>
@@ -3033,16 +3036,16 @@
       </c>
       <c r="F138" s="0"/>
       <c r="G138" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H138" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I138" s="0"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B139" t="s" s="0">
         <v>16</v>
@@ -3058,10 +3061,10 @@
       </c>
       <c r="F139" s="0"/>
       <c r="G139" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H139" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I139" s="0"/>
     </row>
@@ -3070,18 +3073,18 @@
         <v>45947.0</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D141" t="s" s="0">
         <v>4</v>
@@ -3091,22 +3094,22 @@
       </c>
       <c r="F141" s="0"/>
       <c r="G141" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H141" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I141" s="0"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D142" t="s" s="0">
         <v>4</v>
@@ -3116,22 +3119,22 @@
       </c>
       <c r="F142" s="0"/>
       <c r="G142" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H142" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I142" s="0"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D143" t="s" s="0">
         <v>9</v>
@@ -3141,22 +3144,22 @@
       </c>
       <c r="F143" s="0"/>
       <c r="G143" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H143" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I143" s="0"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D144" t="s" s="0">
         <v>9</v>
@@ -3166,22 +3169,22 @@
       </c>
       <c r="F144" s="0"/>
       <c r="G144" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H144" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I144" s="0"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D145" t="s" s="0">
         <v>14</v>
@@ -3214,10 +3217,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B148" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="B148" t="s" s="0">
-        <v>21</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>3</v>
@@ -3237,10 +3240,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="B149" t="s" s="0">
-        <v>21</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>3</v>
@@ -3260,7 +3263,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B150" s="0"/>
       <c r="C150" s="0"/>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B151" s="0"/>
       <c r="C151" s="0"/>
@@ -3306,7 +3309,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B153" s="0"/>
       <c r="C153" s="0"/>
@@ -3325,7 +3328,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B154" s="0"/>
       <c r="C154" s="0"/>
@@ -3344,7 +3347,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B155" t="s" s="0">
         <v>12</v>
@@ -3360,16 +3363,16 @@
       </c>
       <c r="F155" s="0"/>
       <c r="G155" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H155" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I155" s="0"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B156" t="s" s="0">
         <v>12</v>
@@ -3385,35 +3388,35 @@
       </c>
       <c r="F156" s="0"/>
       <c r="G156" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H156" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I156" s="0"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E157" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F157" s="0"/>
       <c r="G157" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H157" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I157" s="0"/>
     </row>
@@ -3422,17 +3425,17 @@
         <v>45952.0</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B159" s="0"/>
       <c r="C159" s="0"/>
       <c r="D159" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E159" t="n" s="0">
         <v>4.0</v>
@@ -3446,13 +3449,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D160" t="s" s="0">
         <v>14</v>
@@ -3462,22 +3465,22 @@
       </c>
       <c r="F160" s="0"/>
       <c r="G160" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H160" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I160" s="0"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D161" t="s" s="0">
         <v>14</v>
@@ -3487,16 +3490,16 @@
       </c>
       <c r="F161" s="0"/>
       <c r="G161" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H161" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I161" s="0"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B162" s="0"/>
       <c r="C162" s="0"/>
@@ -3518,18 +3521,18 @@
         <v>45953.0</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D164" t="s" s="0">
         <v>4</v>
@@ -3546,13 +3549,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D165" t="s" s="0">
         <v>9</v>
@@ -3569,13 +3572,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D166" t="s" s="0">
         <v>14</v>
@@ -3592,13 +3595,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D167" t="s" s="0">
         <v>17</v>
@@ -3615,26 +3618,26 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E168" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F168" s="0"/>
       <c r="G168" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H168" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I168" s="0"/>
     </row>
@@ -3643,12 +3646,12 @@
         <v>45954.0</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B170" s="0"/>
       <c r="C170" s="0"/>
@@ -3673,7 +3676,7 @@
         <v>16</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D171" t="s" s="0">
         <v>9</v>
@@ -3690,13 +3693,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B172" t="s" s="0">
         <v>16</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D172" t="s" s="0">
         <v>14</v>
@@ -3707,17 +3710,17 @@
       <c r="F172" s="0"/>
       <c r="G172" s="0"/>
       <c r="H172" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I172" s="0"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B173" s="0"/>
       <c r="C173" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D173" t="s" s="0">
         <v>17</v>
@@ -3727,7 +3730,7 @@
       </c>
       <c r="F173" s="0"/>
       <c r="G173" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H173" t="s" s="0">
         <v>5</v>
@@ -3736,13 +3739,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B174" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D174" t="s" s="0">
         <v>17</v>
@@ -3752,10 +3755,10 @@
       </c>
       <c r="F174" s="0"/>
       <c r="G174" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H174" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I174" s="0"/>
     </row>
@@ -3777,13 +3780,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D177" t="s" s="0">
         <v>4</v>
@@ -3794,19 +3797,19 @@
       <c r="F177" s="0"/>
       <c r="G177" s="0"/>
       <c r="H177" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I177" s="0"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D178" t="s" s="0">
         <v>9</v>
@@ -3817,7 +3820,7 @@
       <c r="F178" s="0"/>
       <c r="G178" s="0"/>
       <c r="H178" t="s" s="0">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I178" s="0"/>
     </row>
@@ -3846,7 +3849,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B180" s="0"/>
       <c r="C180" s="0"/>
@@ -3865,7 +3868,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B181" t="s" s="0">
         <v>12</v>
@@ -3874,42 +3877,42 @@
         <v>13</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E181" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F181" s="0"/>
       <c r="G181" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H181" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I181" s="0"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E182" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F182" s="0"/>
       <c r="G182" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H182" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I182" s="0"/>
     </row>
@@ -3923,13 +3926,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D184" t="s" s="0">
         <v>4</v>
@@ -3940,19 +3943,19 @@
       <c r="F184" s="0"/>
       <c r="G184" s="0"/>
       <c r="H184" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I184" s="0"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D185" t="s" s="0">
         <v>9</v>
@@ -3963,13 +3966,13 @@
       <c r="F185" s="0"/>
       <c r="G185" s="0"/>
       <c r="H185" t="s" s="0">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I185" s="0"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B186" t="s" s="0">
         <v>16</v>
@@ -3985,22 +3988,22 @@
       </c>
       <c r="F186" s="0"/>
       <c r="G186" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H186" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I186" s="0"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B187" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D187" t="s" s="0">
         <v>14</v>
@@ -4010,22 +4013,22 @@
       </c>
       <c r="F187" s="0"/>
       <c r="G187" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H187" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I187" s="0"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D188" t="s" s="0">
         <v>17</v>
@@ -4035,16 +4038,16 @@
       </c>
       <c r="F188" s="0"/>
       <c r="G188" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H188" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I188" s="0"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B189" t="s" s="0">
         <v>16</v>
@@ -4060,10 +4063,10 @@
       </c>
       <c r="F189" s="0"/>
       <c r="G189" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H189" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I189" s="0"/>
     </row>
@@ -4072,17 +4075,17 @@
         <v>45959.0</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B191" s="0"/>
       <c r="C191" s="0"/>
       <c r="D191" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E191" t="n" s="0">
         <v>4.0</v>
@@ -4096,13 +4099,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D192" t="s" s="0">
         <v>14</v>
@@ -4119,13 +4122,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D193" t="s" s="0">
         <v>17</v>
@@ -4145,12 +4148,12 @@
         <v>45960.0</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B195" s="0"/>
       <c r="C195" s="0"/>
@@ -4169,7 +4172,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B196" s="0"/>
       <c r="C196" s="0"/>
@@ -4188,7 +4191,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B197" s="0"/>
       <c r="C197" s="0"/>
@@ -4207,7 +4210,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B198" t="s" s="0">
         <v>12</v>
@@ -4216,17 +4219,17 @@
         <v>13</v>
       </c>
       <c r="D198" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E198" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F198" s="0"/>
       <c r="G198" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H198" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I198" s="0"/>
     </row>
@@ -4235,12 +4238,12 @@
         <v>45961.0</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B200" s="0"/>
       <c r="C200" s="0"/>
@@ -4259,13 +4262,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D201" t="s" s="0">
         <v>9</v>
@@ -4276,7 +4279,7 @@
       <c r="F201" s="0"/>
       <c r="G201" s="0"/>
       <c r="H201" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I201" s="0"/>
     </row>
@@ -4288,7 +4291,7 @@
         <v>7</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D202" t="s" s="0">
         <v>14</v>
@@ -4311,7 +4314,7 @@
         <v>7</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D203" t="s" s="0">
         <v>17</v>
@@ -4344,13 +4347,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B206" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D206" t="s" s="0">
         <v>4</v>
@@ -4360,22 +4363,22 @@
       </c>
       <c r="F206" s="0"/>
       <c r="G206" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H206" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I206" s="0"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B207" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D207" t="s" s="0">
         <v>9</v>
@@ -4385,10 +4388,10 @@
       </c>
       <c r="F207" s="0"/>
       <c r="G207" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H207" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I207" s="0"/>
     </row>
@@ -4402,13 +4405,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D209" t="s" s="0">
         <v>9</v>
@@ -4419,13 +4422,13 @@
       <c r="F209" s="0"/>
       <c r="G209" s="0"/>
       <c r="H209" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I209" s="0"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B210" s="0"/>
       <c r="C210" s="0"/>
@@ -4444,51 +4447,51 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E211" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F211" s="0"/>
       <c r="G211" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H211" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I211" s="0"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E212" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F212" s="0"/>
       <c r="G212" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H212" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I212" s="0"/>
     </row>
@@ -4497,17 +4500,17 @@
         <v>45966.0</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B214" s="0"/>
       <c r="C214" s="0"/>
       <c r="D214" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E214" t="n" s="0">
         <v>4.0</v>
@@ -4521,13 +4524,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D215" t="s" s="0">
         <v>14</v>
@@ -4544,13 +4547,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D216" t="s" s="0">
         <v>17</v>
@@ -4570,18 +4573,18 @@
         <v>45967.0</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B218" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D218" t="s" s="0">
         <v>9</v>
@@ -4591,16 +4594,16 @@
       </c>
       <c r="F218" s="0"/>
       <c r="G218" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H218" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I218" s="0"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B219" s="0"/>
       <c r="C219" s="0"/>
@@ -4619,7 +4622,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B220" s="0"/>
       <c r="C220" s="0"/>
@@ -4641,18 +4644,18 @@
         <v>45968.0</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D222" t="s" s="0">
         <v>4</v>
@@ -4669,13 +4672,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D223" t="s" s="0">
         <v>9</v>
@@ -4698,7 +4701,7 @@
         <v>7</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D224" t="s" s="0">
         <v>14</v>
@@ -4721,7 +4724,7 @@
         <v>7</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D225" t="s" s="0">
         <v>17</v>
@@ -4754,13 +4757,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D228" t="s" s="0">
         <v>17</v>
@@ -4777,51 +4780,51 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D229" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E229" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F229" s="0"/>
       <c r="G229" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H229" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I229" s="0"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E230" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F230" s="0"/>
       <c r="G230" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H230" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I230" s="0"/>
     </row>
@@ -4830,20 +4833,20 @@
         <v>45973.0</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B232" s="0"/>
       <c r="C232" s="0"/>
       <c r="D232" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E232" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F232" s="0"/>
       <c r="G232" s="0"/>
@@ -4854,13 +4857,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D233" t="s" s="0">
         <v>14</v>
@@ -4871,19 +4874,19 @@
       <c r="F233" s="0"/>
       <c r="G233" s="0"/>
       <c r="H233" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I233" s="0"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D234" t="s" s="0">
         <v>17</v>
@@ -4894,7 +4897,7 @@
       <c r="F234" s="0"/>
       <c r="G234" s="0"/>
       <c r="H234" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I234" s="0"/>
     </row>
@@ -4903,12 +4906,12 @@
         <v>45974.0</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B236" t="s" s="0">
         <v>16</v>
@@ -4925,7 +4928,7 @@
       <c r="F236" s="0"/>
       <c r="G236" s="0"/>
       <c r="H236" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I236" s="0"/>
     </row>
@@ -4934,18 +4937,18 @@
         <v>45975.0</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D238" t="s" s="0">
         <v>9</v>
@@ -4962,13 +4965,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B239" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D239" t="s" s="0">
         <v>14</v>
@@ -4979,7 +4982,7 @@
       <c r="F239" s="0"/>
       <c r="G239" s="0"/>
       <c r="H239" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I239" s="0"/>
     </row>
@@ -5001,13 +5004,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B242" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D242" t="s" s="0">
         <v>4</v>
@@ -5017,22 +5020,22 @@
       </c>
       <c r="F242" s="0"/>
       <c r="G242" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H242" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I242" s="0"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B243" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D243" t="s" s="0">
         <v>9</v>
@@ -5042,22 +5045,22 @@
       </c>
       <c r="F243" s="0"/>
       <c r="G243" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H243" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I243" s="0"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B244" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B244" t="s" s="0">
+      <c r="C244" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="C244" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="D244" t="s" s="0">
         <v>14</v>
@@ -5074,13 +5077,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D245" t="s" s="0">
         <v>17</v>
@@ -5097,26 +5100,26 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D246" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E246" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F246" s="0"/>
       <c r="G246" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H246" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I246" s="0"/>
     </row>
@@ -5136,7 +5139,7 @@
         <v>7</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D248" t="s" s="0">
         <v>4</v>
@@ -5159,7 +5162,7 @@
         <v>7</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D249" t="s" s="0">
         <v>9</v>
@@ -5179,17 +5182,17 @@
         <v>45980.0</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B251" s="0"/>
       <c r="C251" s="0"/>
       <c r="D251" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E251" t="n" s="0">
         <v>4.0</v>
@@ -5203,13 +5206,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D252" t="s" s="0">
         <v>14</v>
@@ -5229,12 +5232,12 @@
         <v>45981.0</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B254" t="s" s="0">
         <v>12</v>
@@ -5251,19 +5254,19 @@
       <c r="F254" s="0"/>
       <c r="G254" s="0"/>
       <c r="H254" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I254" s="0"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B255" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B255" t="s" s="0">
+      <c r="C255" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="C255" t="s" s="0">
-        <v>22</v>
       </c>
       <c r="D255" t="s" s="0">
         <v>14</v>
@@ -5280,13 +5283,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D256" t="s" s="0">
         <v>17</v>
@@ -5303,26 +5306,26 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C257" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D257" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E257" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F257" s="0"/>
       <c r="G257" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H257" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I257" s="0"/>
     </row>
@@ -5331,18 +5334,18 @@
         <v>45982.0</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D259" t="s" s="0">
         <v>9</v>
@@ -5353,19 +5356,19 @@
       <c r="F259" s="0"/>
       <c r="G259" s="0"/>
       <c r="H259" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I259" s="0"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D260" t="s" s="0">
         <v>14</v>
@@ -5376,19 +5379,19 @@
       <c r="F260" s="0"/>
       <c r="G260" s="0"/>
       <c r="H260" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I260" s="0"/>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D261" t="s" s="0">
         <v>17</v>
@@ -5399,7 +5402,7 @@
       <c r="F261" s="0"/>
       <c r="G261" s="0"/>
       <c r="H261" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I261" s="0"/>
     </row>
@@ -5421,12 +5424,12 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B264" s="0"/>
       <c r="C264" s="0"/>
       <c r="D264" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E264" t="n" s="0">
         <v>2.0</v>
@@ -5440,7 +5443,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B265" s="0"/>
       <c r="C265" s="0"/>
@@ -5467,13 +5470,13 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D267" t="s" s="0">
         <v>14</v>
@@ -5490,13 +5493,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C268" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="B268" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C268" t="s" s="0">
-        <v>89</v>
       </c>
       <c r="D268" t="s" s="0">
         <v>17</v>
@@ -5507,7 +5510,7 @@
       <c r="F268" s="0"/>
       <c r="G268" s="0"/>
       <c r="H268" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I268" s="0"/>
     </row>
@@ -5516,17 +5519,17 @@
         <v>45987.0</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B270" s="0"/>
       <c r="C270" s="0"/>
       <c r="D270" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E270" t="n" s="0">
         <v>4.0</v>
@@ -5540,13 +5543,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D271" t="s" s="0">
         <v>14</v>
@@ -5563,13 +5566,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D272" t="s" s="0">
         <v>17</v>
@@ -5589,18 +5592,18 @@
         <v>45988.0</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D274" t="s" s="0">
         <v>14</v>
@@ -5611,13 +5614,13 @@
       <c r="F274" s="0"/>
       <c r="G274" s="0"/>
       <c r="H274" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I274" s="0"/>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B275" s="0"/>
       <c r="C275" s="0"/>
@@ -5636,51 +5639,51 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D276" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E276" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F276" s="0"/>
       <c r="G276" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H276" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I276" s="0"/>
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D277" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E277" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F277" s="0"/>
       <c r="G277" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H277" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I277" s="0"/>
     </row>
@@ -5689,18 +5692,18 @@
         <v>45989.0</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D279" t="s" s="0">
         <v>9</v>
@@ -5717,13 +5720,13 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D280" t="s" s="0">
         <v>14</v>
@@ -5734,19 +5737,19 @@
       <c r="F280" s="0"/>
       <c r="G280" s="0"/>
       <c r="H280" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I280" s="0"/>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D281" t="s" s="0">
         <v>17</v>
@@ -5757,7 +5760,7 @@
       <c r="F281" s="0"/>
       <c r="G281" s="0"/>
       <c r="H281" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I281" s="0"/>
     </row>
@@ -5779,13 +5782,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D284" t="s" s="0">
         <v>4</v>
@@ -5802,13 +5805,13 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D285" t="s" s="0">
         <v>9</v>
@@ -5825,13 +5828,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D286" t="s" s="0">
         <v>14</v>
@@ -5842,19 +5845,19 @@
       <c r="F286" s="0"/>
       <c r="G286" s="0"/>
       <c r="H286" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I286" s="0"/>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D287" t="s" s="0">
         <v>17</v>
@@ -5865,7 +5868,7 @@
       <c r="F287" s="0"/>
       <c r="G287" s="0"/>
       <c r="H287" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I287" s="0"/>
     </row>
@@ -5885,7 +5888,7 @@
         <v>7</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D289" t="s" s="0">
         <v>14</v>
@@ -5908,7 +5911,7 @@
         <v>7</v>
       </c>
       <c r="C290" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D290" t="s" s="0">
         <v>17</v>
@@ -5928,17 +5931,17 @@
         <v>45994.0</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B292" s="0"/>
       <c r="C292" s="0"/>
       <c r="D292" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E292" t="n" s="0">
         <v>4.0</v>
@@ -5952,7 +5955,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B293" s="0"/>
       <c r="C293" s="0"/>
@@ -5971,13 +5974,13 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D294" t="s" s="0">
         <v>17</v>
@@ -5988,7 +5991,7 @@
       <c r="F294" s="0"/>
       <c r="G294" s="0"/>
       <c r="H294" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I294" s="0"/>
     </row>
@@ -5997,15 +6000,15 @@
         <v>45995.0</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>3</v>
@@ -6019,19 +6022,19 @@
       <c r="F296" s="0"/>
       <c r="G296" s="0"/>
       <c r="H296" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I296" s="0"/>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D297" t="s" s="0">
         <v>9</v>
@@ -6048,13 +6051,13 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D298" t="s" s="0">
         <v>14</v>
@@ -6064,22 +6067,22 @@
       </c>
       <c r="F298" s="0"/>
       <c r="G298" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H298" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I298" s="0"/>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D299" t="s" s="0">
         <v>14</v>
@@ -6089,16 +6092,16 @@
       </c>
       <c r="F299" s="0"/>
       <c r="G299" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H299" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I299" s="0"/>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B300" s="0"/>
       <c r="C300" s="0"/>
@@ -6117,51 +6120,51 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D301" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E301" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F301" s="0"/>
       <c r="G301" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H301" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I301" s="0"/>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D302" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E302" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F302" s="0"/>
       <c r="G302" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H302" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I302" s="0"/>
     </row>
@@ -6170,12 +6173,12 @@
         <v>45996.0</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B304" s="0"/>
       <c r="C304" s="0"/>
@@ -6183,7 +6186,7 @@
         <v>14</v>
       </c>
       <c r="E304" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F304" s="0"/>
       <c r="G304" s="0"/>
@@ -6210,13 +6213,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B307" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D307" t="s" s="0">
         <v>4</v>
@@ -6226,22 +6229,22 @@
       </c>
       <c r="F307" s="0"/>
       <c r="G307" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H307" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I307" s="0"/>
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B308" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D308" t="s" s="0">
         <v>9</v>
@@ -6251,16 +6254,16 @@
       </c>
       <c r="F308" s="0"/>
       <c r="G308" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H308" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I308" s="0"/>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B309" t="s" s="0">
         <v>7</v>
@@ -6274,16 +6277,16 @@
       </c>
       <c r="F309" s="0"/>
       <c r="G309" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H309" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I309" s="0"/>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B310" s="0"/>
       <c r="C310" s="0"/>
@@ -6302,24 +6305,24 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B311" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C311" s="0"/>
       <c r="D311" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E311" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F311" s="0"/>
       <c r="G311" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H311" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I311" s="0"/>
     </row>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B313" s="0"/>
       <c r="C313" s="0"/>
@@ -6352,7 +6355,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B314" t="s" s="0">
         <v>7</v>
@@ -6366,16 +6369,16 @@
       </c>
       <c r="F314" s="0"/>
       <c r="G314" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H314" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I314" s="0"/>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B315" s="0"/>
       <c r="C315" s="0"/>
@@ -6394,24 +6397,24 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B316" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C316" s="0"/>
       <c r="D316" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E316" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F316" s="0"/>
       <c r="G316" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H316" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I316" s="0"/>
     </row>
@@ -6420,17 +6423,17 @@
         <v>46001.0</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B318" s="0"/>
       <c r="C318" s="0"/>
       <c r="D318" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E318" t="n" s="0">
         <v>4.0</v>
@@ -6447,18 +6450,18 @@
         <v>46002.0</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D320" t="s" s="0">
         <v>4</v>
@@ -6475,13 +6478,13 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D321" t="s" s="0">
         <v>9</v>
@@ -6498,13 +6501,13 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D322" t="s" s="0">
         <v>14</v>
@@ -6524,18 +6527,18 @@
         <v>46003.0</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D324" t="s" s="0">
         <v>4</v>
@@ -6552,13 +6555,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D325" t="s" s="0">
         <v>9</v>
@@ -6637,10 +6640,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C330" s="0"/>
       <c r="D330" t="s" s="0">
@@ -6651,19 +6654,19 @@
       </c>
       <c r="F330" s="0"/>
       <c r="G330" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H330" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I330" s="0"/>
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C331" s="0"/>
       <c r="D331" t="s" s="0">
@@ -6674,22 +6677,22 @@
       </c>
       <c r="F331" s="0"/>
       <c r="G331" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H331" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I331" s="0"/>
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C332" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D332" t="s" s="0">
         <v>14</v>
@@ -6699,22 +6702,22 @@
       </c>
       <c r="F332" s="0"/>
       <c r="G332" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H332" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I332" s="0"/>
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C333" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D333" t="s" s="0">
         <v>17</v>
@@ -6724,21 +6727,21 @@
       </c>
       <c r="F333" s="0"/>
       <c r="G333" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H333" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I333" s="0"/>
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B334" s="0"/>
       <c r="C334" s="0"/>
       <c r="D334" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E334" t="n" s="0">
         <v>2.0</v>
@@ -6760,12 +6763,12 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B336" s="0"/>
       <c r="C336" s="0"/>
       <c r="D336" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E336" t="n" s="0">
         <v>4.0</v>
@@ -6779,13 +6782,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D337" t="s" s="0">
         <v>14</v>
@@ -6795,22 +6798,22 @@
       </c>
       <c r="F337" s="0"/>
       <c r="G337" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H337" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I337" s="0"/>
     </row>
     <row r="338">
       <c r="A338" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D338" t="s" s="0">
         <v>14</v>
@@ -6820,22 +6823,22 @@
       </c>
       <c r="F338" s="0"/>
       <c r="G338" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H338" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I338" s="0"/>
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D339" t="s" s="0">
         <v>17</v>
@@ -6846,7 +6849,7 @@
       <c r="F339" s="0"/>
       <c r="G339" s="0"/>
       <c r="H339" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I339" s="0"/>
     </row>
@@ -6855,17 +6858,17 @@
         <v>46008.0</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B341" s="0"/>
       <c r="C341" s="0"/>
       <c r="D341" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E341" t="n" s="0">
         <v>4.0</v>
@@ -6879,7 +6882,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B342" s="0"/>
       <c r="C342" s="0"/>
@@ -6898,41 +6901,41 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B343" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D343" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E343" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F343" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G343" s="0"/>
       <c r="H343" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I343" s="0"/>
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D344" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E344" t="n" s="0">
         <v>1.0</v>
@@ -6940,7 +6943,7 @@
       <c r="F344" s="0"/>
       <c r="G344" s="0"/>
       <c r="H344" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I344" s="0"/>
     </row>
@@ -6949,21 +6952,21 @@
         <v>46009.0</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C346" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D346" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E346" t="n" s="0">
         <v>1.0</v>
@@ -6971,13 +6974,13 @@
       <c r="F346" s="0"/>
       <c r="G346" s="0"/>
       <c r="H346" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I346" s="0"/>
     </row>
     <row r="347">
       <c r="A347" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B347" s="0"/>
       <c r="C347" s="0"/>
@@ -6996,13 +6999,13 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D348" t="s" s="0">
         <v>14</v>
@@ -7012,22 +7015,22 @@
       </c>
       <c r="F348" s="0"/>
       <c r="G348" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H348" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I348" s="0"/>
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D349" t="s" s="0">
         <v>14</v>
@@ -7037,22 +7040,22 @@
       </c>
       <c r="F349" s="0"/>
       <c r="G349" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H349" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I349" s="0"/>
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C350" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D350" t="s" s="0">
         <v>17</v>
@@ -7063,7 +7066,7 @@
       <c r="F350" s="0"/>
       <c r="G350" s="0"/>
       <c r="H350" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I350" s="0"/>
     </row>
@@ -7072,21 +7075,21 @@
         <v>46010.0</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B352" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D352" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E352" t="n" s="0">
         <v>4.0</v>
@@ -7094,7 +7097,7 @@
       <c r="F352" s="0"/>
       <c r="G352" s="0"/>
       <c r="H352" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I352" s="0"/>
     </row>

--- a/all.xlsx
+++ b/all.xlsx
@@ -12,119 +12,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="163">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>Télécoms (KINX6AC1)</t>
+  </si>
+  <si>
+    <t>JGT</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>TYPE_AUTRE</t>
+  </si>
+  <si>
+    <t>PJ (KINR6AD2)</t>
+  </si>
+  <si>
+    <t>KINR6AD2</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>KINX6AC1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>BE (KINR6AE1)</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>Anglais (KINR6AV1)</t>
+  </si>
+  <si>
+    <t>KINR6AV1</t>
+  </si>
+  <si>
+    <t>7:45</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>CPO (KINX6AA1)</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Réseaux d'opérateurs (KINX6AB1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech. de  trans. /TPC (FM)  </t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
     <t>jeudi</t>
   </si>
   <si>
-    <t>Télécoms (KINX6AC1)</t>
-  </si>
-  <si>
-    <t>JGT</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>TYPE_AUTRE</t>
-  </si>
-  <si>
-    <t>PJ (KINR6AD2)</t>
-  </si>
-  <si>
-    <t>KINR6AD2</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>KINX6AC1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>BE (KINR6AE1)</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>18:0</t>
+    <t>Réseaux (KINX5AC3) - CC</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>TYPE_COURS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCP/IP (KINX6AB2) </t>
+  </si>
+  <si>
+    <t>Sport (KUPX6BA4)</t>
+  </si>
+  <si>
+    <t>KUPX6BA4</t>
+  </si>
+  <si>
+    <t>Informatique (KINR5AA1) (OM) / GC</t>
+  </si>
+  <si>
+    <t>KINR5AA1</t>
   </si>
   <si>
     <t>vendredi</t>
   </si>
   <si>
-    <t>Anglais (KINR6AV1)</t>
-  </si>
-  <si>
-    <t>KINR6AV1</t>
-  </si>
-  <si>
-    <t>7:45</t>
-  </si>
-  <si>
-    <t>samedi</t>
-  </si>
-  <si>
-    <t>CPO (KINX6AA1)</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>Réseaux d'opérateurs (KINX6AB1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tech. de  trans. /TPC (FM)  </t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>dimanche</t>
-  </si>
-  <si>
-    <t>Réseaux (KINX5AC3) - CC</t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>TYPE_COURS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCP/IP (KINX6AB2) </t>
-  </si>
-  <si>
-    <t>Sport (KUPX6BA4)</t>
-  </si>
-  <si>
-    <t>KUPX6BA4</t>
-  </si>
-  <si>
-    <t>Informatique (KINR5AA1) (OM) / GC</t>
-  </si>
-  <si>
-    <t>KINR5AA1</t>
-  </si>
-  <si>
-    <t>lundi</t>
-  </si>
-  <si>
     <t>Anglais (KUPX6BA1)</t>
   </si>
   <si>
@@ -405,18 +405,6 @@
   </si>
   <si>
     <t>9:0</t>
-  </si>
-  <si>
-    <t>8:45</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>16:45</t>
   </si>
   <si>
     <t xml:space="preserve">Télécoms () (KINX6AC1) /TP/GC </t>
@@ -575,7 +563,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44931.0</v>
+        <v>46027.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -692,7 +680,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>44932.0</v>
+        <v>46028.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>17</v>
@@ -765,7 +753,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>44933.0</v>
+        <v>46029.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>21</v>
@@ -882,7 +870,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n" s="1">
-        <v>44934.0</v>
+        <v>46030.0</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>27</v>
@@ -999,7 +987,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n" s="1">
-        <v>44935.0</v>
+        <v>46031.0</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>36</v>
@@ -1107,7 +1095,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="1">
-        <v>44938.0</v>
+        <v>46034.0</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>1</v>
@@ -1226,7 +1214,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n" s="1">
-        <v>44939.0</v>
+        <v>46035.0</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>17</v>
@@ -1318,7 +1306,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n" s="1">
-        <v>44940.0</v>
+        <v>46036.0</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>21</v>
@@ -1435,7 +1423,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n" s="1">
-        <v>44941.0</v>
+        <v>46037.0</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>27</v>
@@ -1602,7 +1590,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="1">
-        <v>44942.0</v>
+        <v>46038.0</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>36</v>
@@ -1731,7 +1719,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n" s="1">
-        <v>44945.0</v>
+        <v>46041.0</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>1</v>
@@ -1923,7 +1911,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n" s="1">
-        <v>44946.0</v>
+        <v>46042.0</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>17</v>
@@ -1994,7 +1982,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n" s="1">
-        <v>44947.0</v>
+        <v>46043.0</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>21</v>
@@ -2090,7 +2078,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n" s="1">
-        <v>44948.0</v>
+        <v>46044.0</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>27</v>
@@ -2211,7 +2199,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n" s="1">
-        <v>44949.0</v>
+        <v>46045.0</v>
       </c>
       <c r="B86" t="s" s="0">
         <v>36</v>
@@ -2338,7 +2326,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n" s="1">
-        <v>44952.0</v>
+        <v>46048.0</v>
       </c>
       <c r="B93" t="s" s="0">
         <v>1</v>
@@ -2484,7 +2472,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n" s="1">
-        <v>44953.0</v>
+        <v>46049.0</v>
       </c>
       <c r="B100" t="s" s="0">
         <v>17</v>
@@ -2651,7 +2639,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n" s="1">
-        <v>44954.0</v>
+        <v>46050.0</v>
       </c>
       <c r="B108" t="s" s="0">
         <v>21</v>
@@ -2768,7 +2756,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n" s="1">
-        <v>44955.0</v>
+        <v>46051.0</v>
       </c>
       <c r="B114" t="s" s="0">
         <v>27</v>
@@ -2983,7 +2971,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n" s="1">
-        <v>44956.0</v>
+        <v>46052.0</v>
       </c>
       <c r="B124" t="s" s="0">
         <v>36</v>
@@ -3089,7 +3077,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n" s="1">
-        <v>44959.0</v>
+        <v>46055.0</v>
       </c>
       <c r="B130" t="s" s="0">
         <v>1</v>
@@ -3235,7 +3223,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n" s="1">
-        <v>44960.0</v>
+        <v>46056.0</v>
       </c>
       <c r="B137" t="s" s="0">
         <v>17</v>
@@ -3402,7 +3390,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n" s="1">
-        <v>44961.0</v>
+        <v>46057.0</v>
       </c>
       <c r="B145" t="s" s="0">
         <v>21</v>
@@ -3544,7 +3532,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n" s="1">
-        <v>44962.0</v>
+        <v>46058.0</v>
       </c>
       <c r="B152" t="s" s="0">
         <v>27</v>
@@ -3759,7 +3747,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n" s="1">
-        <v>44963.0</v>
+        <v>46059.0</v>
       </c>
       <c r="B162" t="s" s="0">
         <v>36</v>
@@ -3861,7 +3849,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n" s="1">
-        <v>44966.0</v>
+        <v>46062.0</v>
       </c>
       <c r="B168" t="s" s="0">
         <v>1</v>
@@ -3961,7 +3949,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n" s="1">
-        <v>44967.0</v>
+        <v>46063.0</v>
       </c>
       <c r="B173" t="s" s="0">
         <v>17</v>
@@ -4061,7 +4049,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n" s="1">
-        <v>44968.0</v>
+        <v>46064.0</v>
       </c>
       <c r="B178" t="s" s="0">
         <v>21</v>
@@ -4161,7 +4149,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n" s="1">
-        <v>44969.0</v>
+        <v>46065.0</v>
       </c>
       <c r="B183" t="s" s="0">
         <v>27</v>
@@ -4261,7 +4249,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n" s="1">
-        <v>44970.0</v>
+        <v>46066.0</v>
       </c>
       <c r="B188" t="s" s="0">
         <v>36</v>
@@ -4369,7 +4357,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n" s="1">
-        <v>44973.0</v>
+        <v>46069.0</v>
       </c>
       <c r="B194" t="s" s="0">
         <v>1</v>
@@ -4469,7 +4457,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n" s="1">
-        <v>44974.0</v>
+        <v>46070.0</v>
       </c>
       <c r="B199" t="s" s="0">
         <v>17</v>
@@ -4546,7 +4534,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n" s="1">
-        <v>44975.0</v>
+        <v>46071.0</v>
       </c>
       <c r="B203" t="s" s="0">
         <v>21</v>
@@ -4646,7 +4634,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n" s="1">
-        <v>44976.0</v>
+        <v>46072.0</v>
       </c>
       <c r="B208" t="s" s="0">
         <v>27</v>
@@ -4746,7 +4734,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n" s="1">
-        <v>44977.0</v>
+        <v>46073.0</v>
       </c>
       <c r="B213" t="s" s="0">
         <v>36</v>
@@ -4854,7 +4842,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n" s="1">
-        <v>44980.0</v>
+        <v>46076.0</v>
       </c>
       <c r="B219" t="s" s="0">
         <v>1</v>
@@ -4954,7 +4942,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n" s="1">
-        <v>44981.0</v>
+        <v>46077.0</v>
       </c>
       <c r="B224" t="s" s="0">
         <v>17</v>
@@ -5054,7 +5042,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n" s="1">
-        <v>44982.0</v>
+        <v>46078.0</v>
       </c>
       <c r="B229" t="s" s="0">
         <v>21</v>
@@ -5108,7 +5096,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n" s="1">
-        <v>44983.0</v>
+        <v>46079.0</v>
       </c>
       <c r="B232" t="s" s="0">
         <v>27</v>
@@ -5208,7 +5196,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n" s="1">
-        <v>44984.0</v>
+        <v>46080.0</v>
       </c>
       <c r="B237" t="s" s="0">
         <v>36</v>
@@ -5316,7 +5304,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n" s="1">
-        <v>44994.0</v>
+        <v>46090.0</v>
       </c>
       <c r="B243" t="s" s="0">
         <v>1</v>
@@ -5412,7 +5400,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n" s="1">
-        <v>44995.0</v>
+        <v>46091.0</v>
       </c>
       <c r="B248" t="s" s="0">
         <v>17</v>
@@ -5604,7 +5592,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n" s="1">
-        <v>44996.0</v>
+        <v>46092.0</v>
       </c>
       <c r="B257" t="s" s="0">
         <v>21</v>
@@ -5769,7 +5757,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n" s="1">
-        <v>44997.0</v>
+        <v>46093.0</v>
       </c>
       <c r="B265" t="s" s="0">
         <v>27</v>
@@ -5961,7 +5949,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n" s="1">
-        <v>44998.0</v>
+        <v>46094.0</v>
       </c>
       <c r="B274" t="s" s="0">
         <v>36</v>
@@ -6115,7 +6103,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n" s="1">
-        <v>45001.0</v>
+        <v>46097.0</v>
       </c>
       <c r="B282" t="s" s="0">
         <v>1</v>
@@ -6230,7 +6218,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n" s="1">
-        <v>45002.0</v>
+        <v>46098.0</v>
       </c>
       <c r="B288" t="s" s="0">
         <v>17</v>
@@ -6422,7 +6410,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n" s="1">
-        <v>45003.0</v>
+        <v>46099.0</v>
       </c>
       <c r="B297" t="s" s="0">
         <v>21</v>
@@ -6520,7 +6508,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n" s="1">
-        <v>45004.0</v>
+        <v>46100.0</v>
       </c>
       <c r="B302" t="s" s="0">
         <v>27</v>
@@ -6687,7 +6675,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n" s="1">
-        <v>45005.0</v>
+        <v>46101.0</v>
       </c>
       <c r="B310" t="s" s="0">
         <v>36</v>
@@ -6818,7 +6806,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n" s="1">
-        <v>45008.0</v>
+        <v>46104.0</v>
       </c>
       <c r="B317" t="s" s="0">
         <v>1</v>
@@ -6939,7 +6927,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n" s="1">
-        <v>45009.0</v>
+        <v>46105.0</v>
       </c>
       <c r="B323" t="s" s="0">
         <v>17</v>
@@ -7085,7 +7073,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n" s="1">
-        <v>45010.0</v>
+        <v>46106.0</v>
       </c>
       <c r="B330" t="s" s="0">
         <v>21</v>
@@ -7162,7 +7150,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n" s="1">
-        <v>45011.0</v>
+        <v>46107.0</v>
       </c>
       <c r="B334" t="s" s="0">
         <v>27</v>
@@ -7177,7 +7165,7 @@
         <v>72</v>
       </c>
       <c r="D335" t="s" s="0">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E335" t="n" s="0">
         <v>2.0</v>
@@ -7200,7 +7188,7 @@
         <v>49</v>
       </c>
       <c r="D336" t="s" s="0">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="E336" t="n" s="0">
         <v>2.0</v>
@@ -7223,7 +7211,7 @@
         <v>33</v>
       </c>
       <c r="D337" t="s" s="0">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="E337" t="n" s="0">
         <v>2.0</v>
@@ -7246,7 +7234,7 @@
         <v>74</v>
       </c>
       <c r="D338" t="s" s="0">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="E338" t="n" s="0">
         <v>2.0</v>
@@ -7269,7 +7257,7 @@
         <v>118</v>
       </c>
       <c r="D339" t="s" s="0">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="E339" t="n" s="0">
         <v>2.0</v>
@@ -7292,7 +7280,7 @@
         <v>69</v>
       </c>
       <c r="D340" t="s" s="0">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="E340" t="n" s="0">
         <v>2.0</v>
@@ -7308,7 +7296,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n" s="1">
-        <v>45012.0</v>
+        <v>46108.0</v>
       </c>
       <c r="B341" t="s" s="0">
         <v>36</v>
@@ -7404,7 +7392,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="0">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B346" s="0"/>
       <c r="C346" t="s" s="0">
@@ -7481,7 +7469,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n" s="1">
-        <v>45015.0</v>
+        <v>46111.0</v>
       </c>
       <c r="B350" t="s" s="0">
         <v>1</v>
@@ -7489,7 +7477,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B351" s="0"/>
       <c r="C351" t="s" s="0">
@@ -7514,7 +7502,7 @@
       </c>
       <c r="B352" s="0"/>
       <c r="C352" t="s" s="0">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D352" t="s" s="0">
         <v>4</v>
@@ -7573,7 +7561,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n" s="1">
-        <v>45016.0</v>
+        <v>46112.0</v>
       </c>
       <c r="B355" t="s" s="0">
         <v>17</v>
@@ -7581,7 +7569,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B356" s="0"/>
       <c r="C356" t="s" s="0">
@@ -7627,7 +7615,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B358" s="0"/>
       <c r="C358" t="s" s="0">
@@ -7719,7 +7707,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n" s="1">
-        <v>45017.0</v>
+        <v>46113.0</v>
       </c>
       <c r="B362" t="s" s="0">
         <v>21</v>
@@ -7752,7 +7740,7 @@
       </c>
       <c r="B364" s="0"/>
       <c r="C364" t="s" s="0">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D364" t="s" s="0">
         <v>4</v>
@@ -7769,7 +7757,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="0">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B365" s="0"/>
       <c r="C365" t="s" s="0">
@@ -7838,11 +7826,11 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="0">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B368" s="0"/>
       <c r="C368" t="s" s="0">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D368" t="s" s="0">
         <v>16</v>
@@ -7861,7 +7849,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n" s="1">
-        <v>45018.0</v>
+        <v>46114.0</v>
       </c>
       <c r="B369" t="s" s="0">
         <v>27</v>
@@ -7869,7 +7857,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="0">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B370" s="0"/>
       <c r="C370" t="s" s="0">
@@ -7892,7 +7880,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="0">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B371" s="0"/>
       <c r="C371" t="s" s="0">
@@ -7915,7 +7903,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="0">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B372" s="0"/>
       <c r="C372" t="s" s="0">
@@ -8007,7 +7995,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="0">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B376" s="0"/>
       <c r="C376" t="s" s="0">
@@ -8053,7 +8041,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n" s="1">
-        <v>45019.0</v>
+        <v>46115.0</v>
       </c>
       <c r="B378" t="s" s="0">
         <v>36</v>
@@ -8130,7 +8118,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B382" s="0"/>
       <c r="C382" t="s" s="0">
@@ -8176,7 +8164,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B384" s="0"/>
       <c r="C384" t="s" s="0">
@@ -8230,7 +8218,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n" s="1">
-        <v>45023.0</v>
+        <v>46119.0</v>
       </c>
       <c r="B387" t="s" s="0">
         <v>17</v>
@@ -8238,7 +8226,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="0">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B388" s="0"/>
       <c r="C388" t="s" s="0">
@@ -8261,7 +8249,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="0">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B389" s="0"/>
       <c r="C389" t="s" s="0">
@@ -8284,7 +8272,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="0">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B390" s="0"/>
       <c r="C390" t="s" s="0">
@@ -8307,11 +8295,11 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B391" s="0"/>
       <c r="C391" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D391" t="s" s="0">
         <v>13</v>
@@ -8330,7 +8318,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n" s="1">
-        <v>45024.0</v>
+        <v>46120.0</v>
       </c>
       <c r="B392" t="s" s="0">
         <v>21</v>
@@ -8338,7 +8326,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="0">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B393" s="0"/>
       <c r="C393" t="s" s="0">
@@ -8361,7 +8349,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="0">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B394" s="0"/>
       <c r="C394" t="s" s="0">
@@ -8384,7 +8372,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="0">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B395" s="0"/>
       <c r="C395" t="s" s="0">
@@ -8407,7 +8395,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="0">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B396" s="0"/>
       <c r="C396" t="s" s="0">
@@ -8430,7 +8418,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n" s="1">
-        <v>45025.0</v>
+        <v>46121.0</v>
       </c>
       <c r="B397" t="s" s="0">
         <v>27</v>
@@ -8461,7 +8449,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="0">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B399" s="0"/>
       <c r="C399" t="s" s="0">
@@ -8484,11 +8472,11 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B400" s="0"/>
       <c r="C400" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D400" t="s" s="0">
         <v>13</v>
@@ -8507,11 +8495,11 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="0">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B401" s="0"/>
       <c r="C401" t="s" s="0">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D401" t="s" s="0">
         <v>16</v>
@@ -8530,7 +8518,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n" s="1">
-        <v>45026.0</v>
+        <v>46122.0</v>
       </c>
       <c r="B402" t="s" s="0">
         <v>36</v>
@@ -8538,7 +8526,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B403" s="0"/>
       <c r="C403" t="s" s="0">
@@ -8561,7 +8549,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B404" s="0"/>
       <c r="C404" t="s" s="0">
@@ -8592,7 +8580,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n" s="1">
-        <v>45029.0</v>
+        <v>46125.0</v>
       </c>
       <c r="B406" t="s" s="0">
         <v>1</v>
@@ -8600,7 +8588,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="0">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B407" s="0"/>
       <c r="C407" t="s" s="0">
@@ -8623,7 +8611,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="0">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B408" s="0"/>
       <c r="C408" t="s" s="0">
@@ -8646,7 +8634,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n" s="1">
-        <v>45030.0</v>
+        <v>46126.0</v>
       </c>
       <c r="B409" t="s" s="0">
         <v>17</v>
@@ -8654,11 +8642,11 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="0">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B410" s="0"/>
       <c r="C410" t="s" s="0">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D410" t="s" s="0">
         <v>8</v>
@@ -8700,7 +8688,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n" s="1">
-        <v>45031.0</v>
+        <v>46127.0</v>
       </c>
       <c r="B412" t="s" s="0">
         <v>21</v>
@@ -8708,7 +8696,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="0">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B413" s="0"/>
       <c r="C413" t="s" s="0">
@@ -8731,11 +8719,11 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="0">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B414" s="0"/>
       <c r="C414" t="s" s="0">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D414" t="s" s="0">
         <v>4</v>
@@ -8754,7 +8742,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="0">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B415" s="0"/>
       <c r="C415" t="s" s="0">
@@ -8777,7 +8765,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="0">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B416" s="0"/>
       <c r="C416" t="s" s="0">
@@ -8800,7 +8788,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n" s="1">
-        <v>45032.0</v>
+        <v>46128.0</v>
       </c>
       <c r="B417" t="s" s="0">
         <v>27</v>
@@ -8808,11 +8796,11 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="0">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B418" s="0"/>
       <c r="C418" t="s" s="0">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D418" t="s" s="0">
         <v>8</v>
@@ -8854,11 +8842,11 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="0">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B420" s="0"/>
       <c r="C420" t="s" s="0">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D420" t="s" s="0">
         <v>16</v>
@@ -8877,7 +8865,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n" s="1">
-        <v>45033.0</v>
+        <v>46129.0</v>
       </c>
       <c r="B421" t="s" s="0">
         <v>36</v>
@@ -8885,7 +8873,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B422" s="0"/>
       <c r="C422" t="s" s="0">
@@ -8908,7 +8896,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="0">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B423" s="0"/>
       <c r="C423" t="s" s="0">
@@ -8939,7 +8927,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n" s="1">
-        <v>45036.0</v>
+        <v>46132.0</v>
       </c>
       <c r="B425" t="s" s="0">
         <v>1</v>
@@ -8947,7 +8935,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="0">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B426" s="0"/>
       <c r="C426" t="s" s="0">
@@ -8970,11 +8958,11 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B427" s="0"/>
       <c r="C427" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D427" t="s" s="0">
         <v>13</v>
@@ -8993,7 +8981,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n" s="1">
-        <v>45037.0</v>
+        <v>46133.0</v>
       </c>
       <c r="B428" t="s" s="0">
         <v>17</v>
@@ -9001,7 +8989,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="0">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B429" s="0"/>
       <c r="C429" t="s" s="0">
@@ -9047,7 +9035,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="0">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B431" s="0"/>
       <c r="C431" t="s" s="0">
@@ -9070,7 +9058,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n" s="1">
-        <v>45038.0</v>
+        <v>46134.0</v>
       </c>
       <c r="B432" t="s" s="0">
         <v>21</v>
@@ -9078,11 +9066,11 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B433" s="0"/>
       <c r="C433" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D433" t="s" s="0">
         <v>8</v>
@@ -9101,7 +9089,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="0">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B434" s="0"/>
       <c r="C434" t="s" s="0">
@@ -9124,11 +9112,11 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B435" s="0"/>
       <c r="C435" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D435" t="s" s="0">
         <v>13</v>
@@ -9147,7 +9135,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="0">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B436" s="0"/>
       <c r="C436" t="s" s="0">
@@ -9170,7 +9158,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="0">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B437" s="0"/>
       <c r="C437" t="s" s="0">
@@ -9193,7 +9181,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n" s="1">
-        <v>45039.0</v>
+        <v>46135.0</v>
       </c>
       <c r="B438" t="s" s="0">
         <v>27</v>
@@ -9201,11 +9189,11 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B439" s="0"/>
       <c r="C439" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D439" t="s" s="0">
         <v>8</v>
@@ -9224,7 +9212,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="0">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B440" s="0"/>
       <c r="C440" t="s" s="0">
@@ -9247,11 +9235,11 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B441" s="0"/>
       <c r="C441" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D441" t="s" s="0">
         <v>13</v>
@@ -9270,7 +9258,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="0">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B442" s="0"/>
       <c r="C442" t="s" s="0">
@@ -9293,7 +9281,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n" s="1">
-        <v>45040.0</v>
+        <v>46136.0</v>
       </c>
       <c r="B443" t="s" s="0">
         <v>36</v>
@@ -9301,11 +9289,11 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B444" s="0"/>
       <c r="C444" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D444" t="s" s="0">
         <v>8</v>
@@ -9324,7 +9312,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="0">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B445" s="0"/>
       <c r="C445" t="s" s="0">
@@ -9347,11 +9335,11 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B446" s="0"/>
       <c r="C446" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D446" t="s" s="0">
         <v>13</v>
@@ -9370,7 +9358,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="0">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B447" s="0"/>
       <c r="C447" t="s" s="0">
@@ -9401,7 +9389,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n" s="1">
-        <v>45050.0</v>
+        <v>46146.0</v>
       </c>
       <c r="B449" t="s" s="0">
         <v>1</v>
@@ -9409,7 +9397,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="0">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B450" s="0"/>
       <c r="C450" t="s" s="0">
@@ -9434,7 +9422,7 @@
       </c>
       <c r="B451" s="0"/>
       <c r="C451" t="s" s="0">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D451" t="s" s="0">
         <v>4</v>
@@ -9451,7 +9439,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="0">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B452" s="0"/>
       <c r="C452" t="s" s="0">
@@ -9474,7 +9462,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="0">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B453" s="0"/>
       <c r="C453" t="s" s="0">
@@ -9520,7 +9508,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="0">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B455" s="0"/>
       <c r="C455" t="s" s="0">
@@ -9543,7 +9531,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n" s="1">
-        <v>45051.0</v>
+        <v>46147.0</v>
       </c>
       <c r="B456" t="s" s="0">
         <v>17</v>
@@ -9595,7 +9583,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="0">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B459" s="0"/>
       <c r="C459" t="s" s="0">
@@ -9641,7 +9629,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n" s="1">
-        <v>45052.0</v>
+        <v>46148.0</v>
       </c>
       <c r="B461" t="s" s="0">
         <v>21</v>
@@ -9695,7 +9683,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="0">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B464" s="0"/>
       <c r="C464" t="s" s="0">
@@ -9718,7 +9706,7 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="0">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B465" s="0"/>
       <c r="C465" t="s" s="0">
@@ -9764,7 +9752,7 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="0">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B467" s="0"/>
       <c r="C467" t="s" s="0">
@@ -9787,7 +9775,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n" s="1">
-        <v>45053.0</v>
+        <v>46149.0</v>
       </c>
       <c r="B468" t="s" s="0">
         <v>27</v>
@@ -9795,7 +9783,7 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="0">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B469" s="0"/>
       <c r="C469" t="s" s="0">
@@ -9820,7 +9808,7 @@
       </c>
       <c r="B470" s="0"/>
       <c r="C470" t="s" s="0">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D470" t="s" s="0">
         <v>4</v>
@@ -9860,7 +9848,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="0">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B472" s="0"/>
       <c r="C472" t="s" s="0">
@@ -9883,11 +9871,11 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B473" s="0"/>
       <c r="C473" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D473" t="s" s="0">
         <v>13</v>
@@ -9906,7 +9894,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="0">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B474" s="0"/>
       <c r="C474" t="s" s="0">
@@ -9960,7 +9948,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n" s="1">
-        <v>45057.0</v>
+        <v>46153.0</v>
       </c>
       <c r="B477" t="s" s="0">
         <v>1</v>
@@ -9995,7 +9983,7 @@
       </c>
       <c r="B479" s="0"/>
       <c r="C479" t="s" s="0">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D479" t="s" s="0">
         <v>4</v>
@@ -10033,7 +10021,7 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="0">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B481" s="0"/>
       <c r="C481" t="s" s="0">
@@ -10056,7 +10044,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="0">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B482" s="0"/>
       <c r="C482" t="s" s="0">
@@ -10079,7 +10067,7 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="0">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B483" s="0"/>
       <c r="C483" t="s" s="0">
@@ -10102,7 +10090,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="0">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B484" s="0"/>
       <c r="C484" t="s" s="0">
@@ -10125,7 +10113,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n" s="1">
-        <v>45058.0</v>
+        <v>46154.0</v>
       </c>
       <c r="B485" t="s" s="0">
         <v>17</v>
@@ -10133,7 +10121,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="0">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B486" s="0"/>
       <c r="C486" t="s" s="0">
@@ -10179,7 +10167,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="0">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B488" s="0"/>
       <c r="C488" t="s" s="0">
@@ -10225,7 +10213,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="0">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B490" s="0"/>
       <c r="C490" t="s" s="0">
@@ -10269,7 +10257,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n" s="1">
-        <v>45059.0</v>
+        <v>46155.0</v>
       </c>
       <c r="B492" t="s" s="0">
         <v>21</v>
@@ -10323,7 +10311,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="0">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B495" s="0"/>
       <c r="C495" s="0"/>
@@ -10350,7 +10338,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n" s="1">
-        <v>45064.0</v>
+        <v>46160.0</v>
       </c>
       <c r="B497" t="s" s="0">
         <v>1</v>
@@ -10358,11 +10346,11 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B498" s="0"/>
       <c r="C498" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D498" t="s" s="0">
         <v>20</v>
@@ -10381,7 +10369,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="0">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B499" s="0"/>
       <c r="C499" t="s" s="0">
@@ -10404,11 +10392,11 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B500" s="0"/>
       <c r="C500" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D500" t="s" s="0">
         <v>4</v>
@@ -10427,7 +10415,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="0">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B501" s="0"/>
       <c r="C501" t="s" s="0">
@@ -10450,7 +10438,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="0">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B502" s="0"/>
       <c r="C502" s="0"/>
@@ -10469,7 +10457,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n" s="1">
-        <v>45065.0</v>
+        <v>46161.0</v>
       </c>
       <c r="B503" t="s" s="0">
         <v>17</v>
@@ -10500,11 +10488,11 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="0">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B505" s="0"/>
       <c r="C505" t="s" s="0">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D505" t="s" s="0">
         <v>4</v>
@@ -10521,7 +10509,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="0">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B506" s="0"/>
       <c r="C506" s="0"/>
@@ -10534,13 +10522,13 @@
       <c r="F506" s="0"/>
       <c r="G506" s="0"/>
       <c r="H506" t="s" s="0">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I506" s="0"/>
     </row>
     <row r="507">
       <c r="A507" t="s" s="0">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B507" s="0"/>
       <c r="C507" s="0"/>
@@ -10553,13 +10541,13 @@
       <c r="F507" s="0"/>
       <c r="G507" s="0"/>
       <c r="H507" t="s" s="0">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I507" s="0"/>
     </row>
     <row r="508">
       <c r="A508" t="n" s="1">
-        <v>45066.0</v>
+        <v>46162.0</v>
       </c>
       <c r="B508" t="s" s="0">
         <v>21</v>
@@ -10567,11 +10555,11 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="0">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B509" s="0"/>
       <c r="C509" t="s" s="0">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D509" t="s" s="0">
         <v>4</v>
@@ -10588,7 +10576,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="0">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B510" s="0"/>
       <c r="C510" s="0"/>
@@ -10601,13 +10589,13 @@
       <c r="F510" s="0"/>
       <c r="G510" s="0"/>
       <c r="H510" t="s" s="0">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I510" s="0"/>
     </row>
     <row r="511">
       <c r="A511" t="s" s="0">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B511" s="0"/>
       <c r="C511" s="0"/>
@@ -10620,13 +10608,13 @@
       <c r="F511" s="0"/>
       <c r="G511" s="0"/>
       <c r="H511" t="s" s="0">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I511" s="0"/>
     </row>
     <row r="512">
       <c r="A512" t="n" s="1">
-        <v>45067.0</v>
+        <v>46163.0</v>
       </c>
       <c r="B512" t="s" s="0">
         <v>27</v>
@@ -10634,7 +10622,7 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="0">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B513" s="0"/>
       <c r="C513" s="0"/>
@@ -10647,13 +10635,13 @@
       <c r="F513" s="0"/>
       <c r="G513" s="0"/>
       <c r="H513" t="s" s="0">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I513" s="0"/>
     </row>
     <row r="514">
       <c r="A514" t="n" s="1">
-        <v>45068.0</v>
+        <v>46164.0</v>
       </c>
       <c r="B514" t="s" s="0">
         <v>36</v>
@@ -10661,7 +10649,7 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="0">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B515" s="0"/>
       <c r="C515" s="0"/>
@@ -10680,7 +10668,7 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="0">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B516" s="0"/>
       <c r="C516" s="0"/>
